--- a/output_test/pin_per_admin_status_test_JIAF.xlsx
+++ b/output_test/pin_per_admin_status_test_JIAF.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
-  <si>
-    <t>admin_1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="45">
+  <si>
+    <t>admin_2</t>
   </si>
   <si>
     <t>Admin Pcode</t>
@@ -63,13 +63,88 @@
     <t>Area severity</t>
   </si>
   <si>
+    <t>afgooye</t>
+  </si>
+  <si>
+    <t>baardheere</t>
+  </si>
+  <si>
     <t>banadir</t>
   </si>
   <si>
+    <t>baraawe</t>
+  </si>
+  <si>
+    <t>baydhaba</t>
+  </si>
+  <si>
+    <t>borama</t>
+  </si>
+  <si>
+    <t>buur_hakaba</t>
+  </si>
+  <si>
+    <t>ceel_waaq</t>
+  </si>
+  <si>
+    <t>diinsoor</t>
+  </si>
+  <si>
+    <t>gaalkacyo</t>
+  </si>
+  <si>
+    <t>galdogob</t>
+  </si>
+  <si>
+    <t>garbahaarey</t>
+  </si>
+  <si>
+    <t>gebiley</t>
+  </si>
+  <si>
+    <t>hargeysa</t>
+  </si>
+  <si>
+    <t>hobyo</t>
+  </si>
+  <si>
+    <t>jariiban</t>
+  </si>
+  <si>
+    <t>kismaayo</t>
+  </si>
+  <si>
+    <t>marka</t>
+  </si>
+  <si>
+    <t>owdweyne</t>
+  </si>
+  <si>
+    <t>qansax_dheere</t>
+  </si>
+  <si>
+    <t>qoryooley</t>
+  </si>
+  <si>
+    <t>waajid</t>
+  </si>
+  <si>
+    <t>wanla_weyn</t>
+  </si>
+  <si>
+    <t>xudur</t>
+  </si>
+  <si>
     <t>Host Community</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>New IDPs</t>
@@ -433,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,46 +566,1127 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>243100.2</v>
+      </c>
+      <c r="E2">
+        <v>0.3607089412644968</v>
+      </c>
+      <c r="F2">
+        <v>87688.41576318743</v>
+      </c>
+      <c r="G2">
+        <v>0.2207538346427235</v>
+      </c>
+      <c r="H2">
+        <v>53665.30135241301</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.4185372240927796</v>
+      </c>
+      <c r="L2">
+        <v>101746.4828843995</v>
+      </c>
+      <c r="M2">
+        <v>0.6392910587355032</v>
+      </c>
+      <c r="N2">
+        <v>155411.7842368126</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>115725.4</v>
+      </c>
+      <c r="E3">
+        <v>0.3461707960600494</v>
+      </c>
+      <c r="F3">
+        <v>40060.75384236763</v>
+      </c>
+      <c r="G3">
+        <v>0.5936520473358783</v>
+      </c>
+      <c r="H3">
+        <v>68700.62063876344</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.06017715660407236</v>
+      </c>
+      <c r="L3">
+        <v>6964.025518868915</v>
+      </c>
+      <c r="M3">
+        <v>0.6538292039399507</v>
+      </c>
+      <c r="N3">
+        <v>75664.64615763236</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>93762.89999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.3618595788906424</v>
+      </c>
+      <c r="F4">
+        <v>33929.00350956541</v>
+      </c>
+      <c r="G4">
+        <v>0.4900087570730205</v>
+      </c>
+      <c r="H4">
+        <v>45944.64208856191</v>
+      </c>
+      <c r="I4">
+        <v>0.148131664036337</v>
+      </c>
+      <c r="J4">
+        <v>13889.25440187266</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6381404211093575</v>
+      </c>
+      <c r="N4">
+        <v>59833.89649043457</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>173573.4</v>
+      </c>
+      <c r="E5">
+        <v>0.1430161380077908</v>
+      </c>
+      <c r="F5">
+        <v>24823.79732888147</v>
+      </c>
+      <c r="G5">
+        <v>0.6723154943774214</v>
+      </c>
+      <c r="H5">
+        <v>116696.0862317699</v>
+      </c>
+      <c r="I5">
+        <v>0.1846683676147877</v>
+      </c>
+      <c r="J5">
+        <v>32053.51643934859</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8569838619922092</v>
+      </c>
+      <c r="N5">
+        <v>148749.6026711185</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>240014.6</v>
+      </c>
+      <c r="E6">
+        <v>0.6835550004343636</v>
+      </c>
+      <c r="F6">
+        <v>164063.1800072536</v>
+      </c>
+      <c r="G6">
+        <v>0.2306524503261371</v>
+      </c>
+      <c r="H6">
+        <v>55359.95560404766</v>
+      </c>
+      <c r="I6">
+        <v>0.07058922159035338</v>
+      </c>
+      <c r="J6">
+        <v>16942.44378432003</v>
+      </c>
+      <c r="K6">
+        <v>0.01520332764914613</v>
+      </c>
+      <c r="L6">
+        <v>3649.020604378748</v>
+      </c>
+      <c r="M6">
+        <v>0.3164449995656366</v>
+      </c>
+      <c r="N6">
+        <v>75951.41999274644</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>81852.39999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.6383041290808265</v>
+      </c>
+      <c r="F7">
+        <v>52246.72489517544</v>
+      </c>
+      <c r="G7">
+        <v>0.3183657435978239</v>
+      </c>
+      <c r="H7">
+        <v>26059.00019126652</v>
+      </c>
+      <c r="I7">
+        <v>0.04333012732134963</v>
+      </c>
+      <c r="J7">
+        <v>3546.674913558038</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.3616958709191735</v>
+      </c>
+      <c r="N7">
+        <v>29605.67510482456</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>94049.89999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.02955949226839396</v>
+      </c>
+      <c r="F8">
+        <v>2780.067291893225</v>
+      </c>
+      <c r="G8">
+        <v>0.9264413632932896</v>
+      </c>
+      <c r="H8">
+        <v>87131.71757359756</v>
+      </c>
+      <c r="I8">
+        <v>0.04399914443831638</v>
+      </c>
+      <c r="J8">
+        <v>4138.115134509211</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9704405077316061</v>
+      </c>
+      <c r="N8">
+        <v>91269.83270810677</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>71100.39999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.3240093690014216</v>
+      </c>
+      <c r="F9">
+        <v>23037.19573974867</v>
+      </c>
+      <c r="G9">
+        <v>0.6100240015518493</v>
+      </c>
+      <c r="H9">
+        <v>43372.95051993711</v>
+      </c>
+      <c r="I9">
+        <v>0.03910843933938309</v>
+      </c>
+      <c r="J9">
+        <v>2780.625680405873</v>
+      </c>
+      <c r="K9">
+        <v>0.0268581901073459</v>
+      </c>
+      <c r="L9">
+        <v>1909.628059908336</v>
+      </c>
+      <c r="M9">
+        <v>0.6759906309985784</v>
+      </c>
+      <c r="N9">
+        <v>48063.20426025131</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>206736.6</v>
+      </c>
+      <c r="E10">
+        <v>0.415143870327607</v>
+      </c>
+      <c r="F10">
+        <v>85825.43226237033</v>
+      </c>
+      <c r="G10">
+        <v>0.4363436276887162</v>
+      </c>
+      <c r="H10">
+        <v>90208.19802003104</v>
+      </c>
+      <c r="I10">
+        <v>0.1212215592663288</v>
+      </c>
+      <c r="J10">
+        <v>25060.93300941931</v>
+      </c>
+      <c r="K10">
+        <v>0.02729094271734794</v>
+      </c>
+      <c r="L10">
+        <v>5642.036708179273</v>
+      </c>
+      <c r="M10">
+        <v>0.5848561296723929</v>
+      </c>
+      <c r="N10">
+        <v>120911.1677376296</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>79356.89999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.532362689952615</v>
+      </c>
+      <c r="F11">
+        <v>42246.65275030067</v>
+      </c>
+      <c r="G11">
+        <v>0.4337115220087651</v>
+      </c>
+      <c r="H11">
+        <v>34418.00188089737</v>
+      </c>
+      <c r="I11">
+        <v>0.01970511522648723</v>
+      </c>
+      <c r="J11">
+        <v>1563.736858516825</v>
+      </c>
+      <c r="K11">
+        <v>0.01422067281213265</v>
+      </c>
+      <c r="L11">
+        <v>1128.508510285129</v>
+      </c>
+      <c r="M11">
+        <v>0.4676373100473849</v>
+      </c>
+      <c r="N11">
+        <v>37110.24724969932</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>94126.89999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.7849424480387786</v>
+      </c>
+      <c r="F12">
+        <v>73884.19931230129</v>
+      </c>
+      <c r="G12">
+        <v>0.2001274017281462</v>
+      </c>
+      <c r="H12">
+        <v>18837.37192972504</v>
+      </c>
+      <c r="I12">
+        <v>0.01493015023307543</v>
+      </c>
+      <c r="J12">
+        <v>1405.328757973668</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.2150575519612216</v>
+      </c>
+      <c r="N12">
+        <v>20242.70068769871</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>93762.89999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.4145514885094056</v>
-      </c>
-      <c r="F2">
-        <v>38869.54976195854</v>
-      </c>
-      <c r="G2">
-        <v>0.4680184114879092</v>
-      </c>
-      <c r="H2">
-        <v>43882.76351449967</v>
-      </c>
-      <c r="I2">
-        <v>0.1174301000026853</v>
-      </c>
-      <c r="J2">
-        <v>11010.58672354178</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.5854485114905945</v>
-      </c>
-      <c r="N2">
-        <v>54893.35023804146</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>82380.2</v>
+      </c>
+      <c r="E13">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="F13">
+        <v>5585.098305084745</v>
+      </c>
+      <c r="G13">
+        <v>0.9013952900419885</v>
+      </c>
+      <c r="H13">
+        <v>74257.12427271702</v>
+      </c>
+      <c r="I13">
+        <v>0.03080809978851995</v>
+      </c>
+      <c r="J13">
+        <v>2537.977422198231</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="N13">
+        <v>76795.10169491525</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>75315.79999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.6378440558813363</v>
+      </c>
+      <c r="F14">
+        <v>48039.73534394754</v>
+      </c>
+      <c r="G14">
+        <v>0.3179624051588353</v>
+      </c>
+      <c r="H14">
+        <v>23947.59291446181</v>
+      </c>
+      <c r="I14">
+        <v>0.04419353895982836</v>
+      </c>
+      <c r="J14">
+        <v>3328.47174159064</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.3621559441186637</v>
+      </c>
+      <c r="N14">
+        <v>27276.06465605245</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>49284.2</v>
+      </c>
+      <c r="E15">
+        <v>0.3827451197253804</v>
+      </c>
+      <c r="F15">
+        <v>18863.28702956959</v>
+      </c>
+      <c r="G15">
+        <v>0.5574818291363522</v>
+      </c>
+      <c r="H15">
+        <v>27475.04596352181</v>
+      </c>
+      <c r="I15">
+        <v>0.05977305113826745</v>
+      </c>
+      <c r="J15">
+        <v>2945.8670069086</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.6172548802746197</v>
+      </c>
+      <c r="N15">
+        <v>30420.91297043041</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>469612.4999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.3970954014604184</v>
+      </c>
+      <c r="F16">
+        <v>186480.9642183307</v>
+      </c>
+      <c r="G16">
+        <v>0.5860764507312832</v>
+      </c>
+      <c r="H16">
+        <v>275228.8272190447</v>
+      </c>
+      <c r="I16">
+        <v>0.01184023204483496</v>
+      </c>
+      <c r="J16">
+        <v>5560.320971155059</v>
+      </c>
+      <c r="K16">
+        <v>0.004987915763463421</v>
+      </c>
+      <c r="L16">
+        <v>2342.387591469465</v>
+      </c>
+      <c r="M16">
+        <v>0.6029045985395817</v>
+      </c>
+      <c r="N16">
+        <v>283131.5357816693</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>77969.5</v>
+      </c>
+      <c r="E17">
+        <v>0.4233620041227185</v>
+      </c>
+      <c r="F17">
+        <v>33009.3237804463</v>
+      </c>
+      <c r="G17">
+        <v>0.5037295276714084</v>
+      </c>
+      <c r="H17">
+        <v>39275.53940777588</v>
+      </c>
+      <c r="I17">
+        <v>0.072908468205873</v>
+      </c>
+      <c r="J17">
+        <v>5684.636811777815</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.5766379958772815</v>
+      </c>
+      <c r="N17">
+        <v>44960.1762195537</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>85275.39999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.2520655642440736</v>
+      </c>
+      <c r="F18">
+        <v>21494.99181713907</v>
+      </c>
+      <c r="G18">
+        <v>0.7281090732791751</v>
+      </c>
+      <c r="H18">
+        <v>62089.79246751096</v>
+      </c>
+      <c r="I18">
+        <v>0.01982536247675131</v>
+      </c>
+      <c r="J18">
+        <v>1690.615715349959</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.7479344357559263</v>
+      </c>
+      <c r="N18">
+        <v>63780.40818286092</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>81840.5</v>
+      </c>
+      <c r="E19">
+        <v>0.574889113875229</v>
+      </c>
+      <c r="F19">
+        <v>47049.21252410568</v>
+      </c>
+      <c r="G19">
+        <v>0.425110886124771</v>
+      </c>
+      <c r="H19">
+        <v>34791.28747589432</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.425110886124771</v>
+      </c>
+      <c r="N19">
+        <v>34791.28747589432</v>
+      </c>
+      <c r="O19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>116609.5</v>
+      </c>
+      <c r="E20">
+        <v>0.5989640365549217</v>
+      </c>
+      <c r="F20">
+        <v>69844.89682065113</v>
+      </c>
+      <c r="G20">
+        <v>0.3418950886459011</v>
+      </c>
+      <c r="H20">
+        <v>39868.2153394542</v>
+      </c>
+      <c r="I20">
+        <v>0.05461084879827191</v>
+      </c>
+      <c r="J20">
+        <v>6368.143772942088</v>
+      </c>
+      <c r="K20">
+        <v>0.004530026000905264</v>
+      </c>
+      <c r="L20">
+        <v>528.2440669525623</v>
+      </c>
+      <c r="M20">
+        <v>0.4010359634450783</v>
+      </c>
+      <c r="N20">
+        <v>46764.60317934885</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>103387.2</v>
+      </c>
+      <c r="E21">
+        <v>0.1127040360229116</v>
+      </c>
+      <c r="F21">
+        <v>11652.15471310797</v>
+      </c>
+      <c r="G21">
+        <v>0.5418856215796917</v>
+      </c>
+      <c r="H21">
+        <v>56024.0371353839</v>
+      </c>
+      <c r="I21">
+        <v>0.3454103423973967</v>
+      </c>
+      <c r="J21">
+        <v>35711.00815150813</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.8872959639770883</v>
+      </c>
+      <c r="N21">
+        <v>91735.04528689203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>70760.2</v>
+      </c>
+      <c r="E22">
+        <v>0.2320836194380281</v>
+      </c>
+      <c r="F22">
+        <v>16422.28332815876</v>
+      </c>
+      <c r="G22">
+        <v>0.7538967137359883</v>
+      </c>
+      <c r="H22">
+        <v>53345.88224330128</v>
+      </c>
+      <c r="I22">
+        <v>0.006826576109431342</v>
+      </c>
+      <c r="J22">
+        <v>483.0498908185836</v>
+      </c>
+      <c r="K22">
+        <v>0.00719309071655216</v>
+      </c>
+      <c r="L22">
+        <v>508.9845377213741</v>
+      </c>
+      <c r="M22">
+        <v>0.7679163805619719</v>
+      </c>
+      <c r="N22">
+        <v>54337.91667184123</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>114132.2</v>
+      </c>
+      <c r="E23">
+        <v>0.4992614475627769</v>
+      </c>
+      <c r="F23">
+        <v>56981.80738552436</v>
+      </c>
+      <c r="G23">
+        <v>0.500738552437223</v>
+      </c>
+      <c r="H23">
+        <v>57150.39261447562</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.500738552437223</v>
+      </c>
+      <c r="N23">
+        <v>57150.39261447562</v>
+      </c>
+      <c r="O23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
         <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>284225.2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>284225.2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>284225.2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>98820.39999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.47335262123134</v>
+      </c>
+      <c r="F25">
+        <v>46776.89537112951</v>
+      </c>
+      <c r="G25">
+        <v>0.4783048653060122</v>
+      </c>
+      <c r="H25">
+        <v>47266.27811148625</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.04834251346264776</v>
+      </c>
+      <c r="L25">
+        <v>4777.226517384237</v>
+      </c>
+      <c r="M25">
+        <v>0.52664737876866</v>
+      </c>
+      <c r="N25">
+        <v>52043.50462887049</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -598,46 +1754,328 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>34728.6</v>
+      </c>
+      <c r="E2">
+        <v>0.1248321621436202</v>
+      </c>
+      <c r="F2">
+        <v>4335.246226220928</v>
+      </c>
+      <c r="G2">
+        <v>0.6433016769084512</v>
+      </c>
+      <c r="H2">
+        <v>22340.96661668284</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.2318661609479286</v>
+      </c>
+      <c r="L2">
+        <v>8052.387157096233</v>
+      </c>
+      <c r="M2">
+        <v>0.8751678378563799</v>
+      </c>
+      <c r="N2">
+        <v>30393.35377377907</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>16532.2</v>
+      </c>
+      <c r="E3">
+        <v>0.3642645338556544</v>
+      </c>
+      <c r="F3">
+        <v>6022.094126608449</v>
+      </c>
+      <c r="G3">
+        <v>0.5533882858619658</v>
+      </c>
+      <c r="H3">
+        <v>9148.725819527192</v>
+      </c>
+      <c r="I3">
+        <v>0.08234718028237983</v>
+      </c>
+      <c r="J3">
+        <v>1361.38005386436</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.6357354661443456</v>
+      </c>
+      <c r="N3">
+        <v>10510.10587339155</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>13394.7</v>
+      </c>
+      <c r="E4">
+        <v>0.1420994377392197</v>
+      </c>
+      <c r="F4">
+        <v>1903.379338685527</v>
+      </c>
+      <c r="G4">
+        <v>0.7572584716690471</v>
+      </c>
+      <c r="H4">
+        <v>10143.25005046539</v>
+      </c>
+      <c r="I4">
+        <v>0.08941866636748466</v>
+      </c>
+      <c r="J4">
+        <v>1197.736210392547</v>
+      </c>
+      <c r="K4">
+        <v>0.01122342422424841</v>
+      </c>
+      <c r="L4">
+        <v>150.3344004565402</v>
+      </c>
+      <c r="M4">
+        <v>0.8579005622607802</v>
+      </c>
+      <c r="N4">
+        <v>11491.32066131447</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>13394.7</v>
-      </c>
-      <c r="E2">
-        <v>0.1527582474608297</v>
-      </c>
-      <c r="F2">
-        <v>2046.150897263576</v>
-      </c>
-      <c r="G2">
-        <v>0.7398403345495363</v>
-      </c>
-      <c r="H2">
-        <v>9909.939329190674</v>
-      </c>
-      <c r="I2">
-        <v>0.09484192000493109</v>
-      </c>
-      <c r="J2">
-        <v>1270.379065890051</v>
-      </c>
-      <c r="K2">
-        <v>0.0125594979847028</v>
-      </c>
-      <c r="L2">
-        <v>168.2307076556986</v>
-      </c>
-      <c r="M2">
-        <v>0.8472417525391702</v>
-      </c>
-      <c r="N2">
-        <v>11348.54910273642</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>24796.2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.7537660757634015</v>
+      </c>
+      <c r="H5">
+        <v>18690.53436784446</v>
+      </c>
+      <c r="I5">
+        <v>0.2462339242365985</v>
+      </c>
+      <c r="J5">
+        <v>6105.665632155544</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>24796.2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>11336.7</v>
+      </c>
+      <c r="E6">
+        <v>0.2754979069801127</v>
+      </c>
+      <c r="F6">
+        <v>3123.237122061444</v>
+      </c>
+      <c r="G6">
+        <v>0.6697504309158592</v>
+      </c>
+      <c r="H6">
+        <v>7592.759710163821</v>
+      </c>
+      <c r="I6">
+        <v>0.05475166210402815</v>
+      </c>
+      <c r="J6">
+        <v>620.703167774736</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7245020930198873</v>
+      </c>
+      <c r="N6">
+        <v>8213.462877938557</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>12182.2</v>
+      </c>
+      <c r="E7">
+        <v>0.1982373979350833</v>
+      </c>
+      <c r="F7">
+        <v>2414.967629124772</v>
+      </c>
+      <c r="G7">
+        <v>0.6886861461637087</v>
+      </c>
+      <c r="H7">
+        <v>8389.712369795532</v>
+      </c>
+      <c r="I7">
+        <v>0.0721992037249477</v>
+      </c>
+      <c r="J7">
+        <v>879.545139618058</v>
+      </c>
+      <c r="K7">
+        <v>0.0408772521762602</v>
+      </c>
+      <c r="L7">
+        <v>497.9748614616371</v>
+      </c>
+      <c r="M7">
+        <v>0.8017626020649167</v>
+      </c>
+      <c r="N7">
+        <v>9767.232370875226</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
         <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>40603.60000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.6116910270420185</v>
+      </c>
+      <c r="F8">
+        <v>24836.8577856033</v>
+      </c>
+      <c r="G8">
+        <v>0.1923175706226276</v>
+      </c>
+      <c r="H8">
+        <v>7808.785710532921</v>
+      </c>
+      <c r="I8">
+        <v>0.1959914023353538</v>
+      </c>
+      <c r="J8">
+        <v>7957.956503863773</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.3883089729579814</v>
+      </c>
+      <c r="N8">
+        <v>15766.74221439669</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +2085,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,46 +2143,798 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>69457.2</v>
+      </c>
+      <c r="E2">
+        <v>0.05645649344330097</v>
+      </c>
+      <c r="F2">
+        <v>3921.309956390044</v>
+      </c>
+      <c r="G2">
+        <v>0.8782205678417633</v>
+      </c>
+      <c r="H2">
+        <v>60998.74162469892</v>
+      </c>
+      <c r="I2">
+        <v>0.02926185436586137</v>
+      </c>
+      <c r="J2">
+        <v>2032.446471060506</v>
+      </c>
+      <c r="K2">
+        <v>0.03606108434907427</v>
+      </c>
+      <c r="L2">
+        <v>2504.701947850521</v>
+      </c>
+      <c r="M2">
+        <v>0.9435435065566989</v>
+      </c>
+      <c r="N2">
+        <v>65535.89004360994</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>33064.4</v>
+      </c>
+      <c r="E3">
+        <v>0.1983543954921146</v>
+      </c>
+      <c r="F3">
+        <v>6558.469074309476</v>
+      </c>
+      <c r="G3">
+        <v>0.7727655231027029</v>
+      </c>
+      <c r="H3">
+        <v>25551.02836207701</v>
+      </c>
+      <c r="I3">
+        <v>0.02888008140518256</v>
+      </c>
+      <c r="J3">
+        <v>954.9025636135183</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8016456045078855</v>
+      </c>
+      <c r="N3">
+        <v>26505.93092569053</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>26789.4</v>
+      </c>
+      <c r="E4">
+        <v>0.1648739801020473</v>
+      </c>
+      <c r="F4">
+        <v>4416.875002545786</v>
+      </c>
+      <c r="G4">
+        <v>0.7580516036571088</v>
+      </c>
+      <c r="H4">
+        <v>20307.74763101175</v>
+      </c>
+      <c r="I4">
+        <v>0.07078550502516925</v>
+      </c>
+      <c r="J4">
+        <v>1896.301208321269</v>
+      </c>
+      <c r="K4">
+        <v>0.006288911215674718</v>
+      </c>
+      <c r="L4">
+        <v>168.4761581211963</v>
+      </c>
+      <c r="M4">
+        <v>0.8351260198979528</v>
+      </c>
+      <c r="N4">
+        <v>22372.52499745422</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>49592.4</v>
+      </c>
+      <c r="E5">
+        <v>0.520955441535437</v>
+      </c>
+      <c r="F5">
+        <v>25835.43063880201</v>
+      </c>
+      <c r="G5">
+        <v>0.3428546491496662</v>
+      </c>
+      <c r="H5">
+        <v>17002.9849024899</v>
+      </c>
+      <c r="I5">
+        <v>0.1361899093148968</v>
+      </c>
+      <c r="J5">
+        <v>6753.984458708088</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.479044558464563</v>
+      </c>
+      <c r="N5">
+        <v>23756.96936119799</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>26789.4</v>
-      </c>
-      <c r="E2">
-        <v>0.164947599181011</v>
-      </c>
-      <c r="F2">
-        <v>4418.847213499777</v>
-      </c>
-      <c r="G2">
-        <v>0.7499844746960893</v>
-      </c>
-      <c r="H2">
-        <v>20091.63408642342</v>
-      </c>
-      <c r="I2">
-        <v>0.07921803830197532</v>
-      </c>
-      <c r="J2">
-        <v>2122.203715286938</v>
-      </c>
-      <c r="K2">
-        <v>0.005849887820924374</v>
-      </c>
-      <c r="L2">
-        <v>156.7149847898714</v>
-      </c>
-      <c r="M2">
-        <v>0.835052400818989</v>
-      </c>
-      <c r="N2">
-        <v>22370.55278650023</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>68575.60000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.3283698247099794</v>
+      </c>
+      <c r="F6">
+        <v>22518.15775138166</v>
+      </c>
+      <c r="G6">
+        <v>0.4943305128261287</v>
+      </c>
+      <c r="H6">
+        <v>33899.01151535947</v>
+      </c>
+      <c r="I6">
+        <v>0.1410594302040062</v>
+      </c>
+      <c r="J6">
+        <v>9673.235061897845</v>
+      </c>
+      <c r="K6">
+        <v>0.03624023225988577</v>
+      </c>
+      <c r="L6">
+        <v>2485.195671361023</v>
+      </c>
+      <c r="M6">
+        <v>0.6716301752900207</v>
+      </c>
+      <c r="N6">
+        <v>46057.44224861834</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>26871.4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>26871.4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>26871.4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>20314.4</v>
+      </c>
+      <c r="E8">
+        <v>0.2157674398871943</v>
+      </c>
+      <c r="F8">
+        <v>4383.18608084442</v>
+      </c>
+      <c r="G8">
+        <v>0.5469988189337376</v>
+      </c>
+      <c r="H8">
+        <v>11111.95280734752</v>
+      </c>
+      <c r="I8">
+        <v>0.2315131653077638</v>
+      </c>
+      <c r="J8">
+        <v>4703.051045328037</v>
+      </c>
+      <c r="K8">
+        <v>0.005720575871304378</v>
+      </c>
+      <c r="L8">
+        <v>116.2100664800257</v>
+      </c>
+      <c r="M8">
+        <v>0.7842325601128057</v>
+      </c>
+      <c r="N8">
+        <v>15931.21391915558</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>59067.60000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.3445616317102247</v>
+      </c>
+      <c r="F9">
+        <v>20352.42863720687</v>
+      </c>
+      <c r="G9">
+        <v>0.338381675708596</v>
+      </c>
+      <c r="H9">
+        <v>19987.39346808507</v>
+      </c>
+      <c r="I9">
+        <v>0.3071258719253527</v>
+      </c>
+      <c r="J9">
+        <v>18141.18815253797</v>
+      </c>
+      <c r="K9">
+        <v>0.009930820655826631</v>
+      </c>
+      <c r="L9">
+        <v>586.5897421701052</v>
+      </c>
+      <c r="M9">
+        <v>0.6554383682897753</v>
+      </c>
+      <c r="N9">
+        <v>38715.17136279315</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>22673.4</v>
+      </c>
+      <c r="E10">
+        <v>0.4346292196694759</v>
+      </c>
+      <c r="F10">
+        <v>9854.522149253897</v>
+      </c>
+      <c r="G10">
+        <v>0.5613632480570409</v>
+      </c>
+      <c r="H10">
+        <v>12728.01346849651</v>
+      </c>
+      <c r="I10">
+        <v>0.004007532273483274</v>
+      </c>
+      <c r="J10">
+        <v>90.86438224959566</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.5653707803305241</v>
+      </c>
+      <c r="N10">
+        <v>12818.87785074611</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>26893.4</v>
+      </c>
+      <c r="E11">
+        <v>0.5071829004694658</v>
+      </c>
+      <c r="F11">
+        <v>13639.87261548553</v>
+      </c>
+      <c r="G11">
+        <v>0.4641850026411055</v>
+      </c>
+      <c r="H11">
+        <v>12483.51295002831</v>
+      </c>
+      <c r="I11">
+        <v>0.02444897310027878</v>
+      </c>
+      <c r="J11">
+        <v>657.5160131750374</v>
+      </c>
+      <c r="K11">
+        <v>0.00418312378914996</v>
+      </c>
+      <c r="L11">
+        <v>112.4984213111255</v>
+      </c>
+      <c r="M11">
+        <v>0.4928170995305343</v>
+      </c>
+      <c r="N11">
+        <v>13253.52738451447</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>23537.2</v>
+      </c>
+      <c r="E12">
+        <v>0.05387445699270006</v>
+      </c>
+      <c r="F12">
+        <v>1268.05386912858</v>
+      </c>
+      <c r="G12">
+        <v>0.8891157359238765</v>
+      </c>
+      <c r="H12">
+        <v>20927.29489958746</v>
+      </c>
+      <c r="I12">
+        <v>0.03642530827670726</v>
+      </c>
+      <c r="J12">
+        <v>857.3497659705142</v>
+      </c>
+      <c r="K12">
+        <v>0.02058449880671604</v>
+      </c>
+      <c r="L12">
+        <v>484.5014653134368</v>
+      </c>
+      <c r="M12">
+        <v>0.9461255430072999</v>
+      </c>
+      <c r="N12">
+        <v>22269.14613087142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>134175</v>
+      </c>
+      <c r="E13">
+        <v>0.7404532979810194</v>
+      </c>
+      <c r="F13">
+        <v>99350.32125660329</v>
+      </c>
+      <c r="G13">
+        <v>0.2595467020189806</v>
+      </c>
+      <c r="H13">
+        <v>34824.67874339672</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.2595467020189806</v>
+      </c>
+      <c r="N13">
+        <v>34824.67874339672</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>24364.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5258123167384334</v>
+      </c>
+      <c r="F14">
+        <v>12811.10160994189</v>
+      </c>
+      <c r="G14">
+        <v>0.335042984751411</v>
+      </c>
+      <c r="H14">
+        <v>8163.121297677279</v>
+      </c>
+      <c r="I14">
+        <v>0.1186746010550068</v>
+      </c>
+      <c r="J14">
+        <v>2891.435449944607</v>
+      </c>
+      <c r="K14">
+        <v>0.02047009745514883</v>
+      </c>
+      <c r="L14">
+        <v>498.7416424362282</v>
+      </c>
+      <c r="M14">
+        <v>0.4741876832615666</v>
+      </c>
+      <c r="N14">
+        <v>11553.29839005811</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>23383</v>
+      </c>
+      <c r="E15">
+        <v>0.06921992735207536</v>
+      </c>
+      <c r="F15">
+        <v>1618.569561273578</v>
+      </c>
+      <c r="G15">
+        <v>0.9307800726479247</v>
+      </c>
+      <c r="H15">
+        <v>21764.43043872642</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.9307800726479247</v>
+      </c>
+      <c r="N15">
+        <v>21764.43043872642</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>29539.2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.2088718887334435</v>
+      </c>
+      <c r="H16">
+        <v>6169.908495674934</v>
+      </c>
+      <c r="I16">
+        <v>0.7388831832341808</v>
+      </c>
+      <c r="J16">
+        <v>21826.01812619111</v>
+      </c>
+      <c r="K16">
+        <v>0.05224492803237578</v>
+      </c>
+      <c r="L16">
+        <v>1543.273378133955</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>29539.2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>32609.2</v>
+      </c>
+      <c r="E17">
+        <v>0.6162926595001895</v>
+      </c>
+      <c r="F17">
+        <v>20096.81059217358</v>
+      </c>
+      <c r="G17">
+        <v>0.3665115170460788</v>
+      </c>
+      <c r="H17">
+        <v>11951.64736165899</v>
+      </c>
+      <c r="I17">
+        <v>0.01719582345373157</v>
+      </c>
+      <c r="J17">
+        <v>560.7420461674234</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.3837073404998103</v>
+      </c>
+      <c r="N17">
+        <v>12512.38940782641</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
         <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>81207.20000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.5666212155110383</v>
+      </c>
+      <c r="F18">
+        <v>46013.722372248</v>
+      </c>
+      <c r="G18">
+        <v>0.138247600965056</v>
+      </c>
+      <c r="H18">
+        <v>11226.7005810895</v>
+      </c>
+      <c r="I18">
+        <v>0.2435179194456369</v>
+      </c>
+      <c r="J18">
+        <v>19775.40838800573</v>
+      </c>
+      <c r="K18">
+        <v>0.0516132640782687</v>
+      </c>
+      <c r="L18">
+        <v>4191.368658656783</v>
+      </c>
+      <c r="M18">
+        <v>0.4333787844889617</v>
+      </c>
+      <c r="N18">
+        <v>35193.47762775201</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/output_test/pin_per_admin_status_test_JIAF.xlsx
+++ b/output_test/pin_per_admin_status_test_JIAF.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Host Community" sheetId="1" r:id="rId1"/>
-    <sheet name="New IDPs" sheetId="2" r:id="rId2"/>
-    <sheet name="Protracted IDPs" sheetId="3" r:id="rId3"/>
+    <sheet name="ocap" sheetId="1" r:id="rId1"/>
+    <sheet name="idp" sheetId="2" r:id="rId2"/>
+    <sheet name="ret" sheetId="3" r:id="rId3"/>
+    <sheet name="ndsp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="45">
-  <si>
-    <t>admin_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="39">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Admin Pcode</t>
@@ -63,94 +64,76 @@
     <t>Area severity</t>
   </si>
   <si>
-    <t>afgooye</t>
-  </si>
-  <si>
-    <t>baardheere</t>
-  </si>
-  <si>
-    <t>banadir</t>
-  </si>
-  <si>
-    <t>baraawe</t>
-  </si>
-  <si>
-    <t>baydhaba</t>
-  </si>
-  <si>
-    <t>borama</t>
-  </si>
-  <si>
-    <t>buur_hakaba</t>
-  </si>
-  <si>
-    <t>ceel_waaq</t>
-  </si>
-  <si>
-    <t>diinsoor</t>
-  </si>
-  <si>
-    <t>gaalkacyo</t>
-  </si>
-  <si>
-    <t>galdogob</t>
-  </si>
-  <si>
-    <t>garbahaarey</t>
-  </si>
-  <si>
-    <t>gebiley</t>
-  </si>
-  <si>
-    <t>hargeysa</t>
-  </si>
-  <si>
-    <t>hobyo</t>
-  </si>
-  <si>
-    <t>jariiban</t>
-  </si>
-  <si>
-    <t>kismaayo</t>
-  </si>
-  <si>
-    <t>marka</t>
-  </si>
-  <si>
-    <t>owdweyne</t>
-  </si>
-  <si>
-    <t>qansax_dheere</t>
-  </si>
-  <si>
-    <t>qoryooley</t>
-  </si>
-  <si>
-    <t>waajid</t>
-  </si>
-  <si>
-    <t>wanla_weyn</t>
-  </si>
-  <si>
-    <t>xudur</t>
-  </si>
-  <si>
-    <t>Host Community</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
+  </si>
+  <si>
+    <t>ocap</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>New IDPs</t>
-  </si>
-  <si>
-    <t>Protracted IDPs</t>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>idp</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>ndsp</t>
   </si>
 </sst>
 </file>
@@ -508,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,46 +549,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>243100.2</v>
+        <v>94126.89999999999</v>
       </c>
       <c r="E2">
-        <v>0.3607089412644968</v>
+        <v>0.7384493592810388</v>
       </c>
       <c r="F2">
-        <v>87688.41576318743</v>
+        <v>69507.94899611041</v>
       </c>
       <c r="G2">
-        <v>0.2207538346427235</v>
+        <v>0.2268220210805441</v>
       </c>
       <c r="H2">
-        <v>53665.30135241301</v>
+        <v>21350.05369604627</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02729271835183012</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2568.978971030878</v>
       </c>
       <c r="K2">
-        <v>0.4185372240927796</v>
+        <v>0.007435901286586845</v>
       </c>
       <c r="L2">
-        <v>101746.4828843995</v>
+        <v>699.9183368124312</v>
       </c>
       <c r="M2">
-        <v>0.6392910587355032</v>
+        <v>0.2615506407189611</v>
       </c>
       <c r="N2">
-        <v>155411.7842368126</v>
+        <v>24618.95100388958</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -613,46 +596,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>115725.4</v>
+        <v>49284.2</v>
       </c>
       <c r="E3">
-        <v>0.3461707960600494</v>
+        <v>0.3116750783411931</v>
       </c>
       <c r="F3">
-        <v>40060.75384236763</v>
+        <v>15360.65689598303</v>
       </c>
       <c r="G3">
-        <v>0.5936520473358783</v>
+        <v>0.6481036871282851</v>
       </c>
       <c r="H3">
-        <v>68700.62063876344</v>
+        <v>31941.27173716783</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.04022123453052186</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1982.271366849145</v>
       </c>
       <c r="K3">
-        <v>0.06017715660407236</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6964.025518868915</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6538292039399507</v>
+        <v>0.688324921658807</v>
       </c>
       <c r="N3">
-        <v>75664.64615763236</v>
+        <v>33923.54310401698</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -660,46 +643,46 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>93762.89999999999</v>
+        <v>71100.39999999999</v>
       </c>
       <c r="E4">
-        <v>0.3618595788906424</v>
+        <v>0.5446002531549328</v>
       </c>
       <c r="F4">
-        <v>33929.00350956541</v>
+        <v>38721.29583941698</v>
       </c>
       <c r="G4">
-        <v>0.4900087570730205</v>
+        <v>0.3939530044196514</v>
       </c>
       <c r="H4">
-        <v>45944.64208856191</v>
+        <v>28010.21619543898</v>
       </c>
       <c r="I4">
-        <v>0.148131664036337</v>
+        <v>0.05514250876819991</v>
       </c>
       <c r="J4">
-        <v>13889.25440187266</v>
+        <v>3920.65443042252</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00630423365721583</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>448.2335347215084</v>
       </c>
       <c r="M4">
-        <v>0.6381404211093575</v>
+        <v>0.4553997468450672</v>
       </c>
       <c r="N4">
-        <v>59833.89649043457</v>
+        <v>32379.10416058301</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -707,46 +690,46 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>173573.4</v>
+        <v>79356.89999999999</v>
       </c>
       <c r="E5">
-        <v>0.1430161380077908</v>
+        <v>0.3077908853039111</v>
       </c>
       <c r="F5">
-        <v>24823.79732888147</v>
+        <v>24425.33050597394</v>
       </c>
       <c r="G5">
-        <v>0.6723154943774214</v>
+        <v>0.6517683121485138</v>
       </c>
       <c r="H5">
-        <v>116696.0862317699</v>
+        <v>51722.31277033839</v>
       </c>
       <c r="I5">
-        <v>0.1846683676147877</v>
+        <v>0.03197296335764478</v>
       </c>
       <c r="J5">
-        <v>32053.51643934859</v>
+        <v>2537.275255876281</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.008467839189930253</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>671.9814678113761</v>
       </c>
       <c r="M5">
-        <v>0.8569838619922092</v>
+        <v>0.6922091146960888</v>
       </c>
       <c r="N5">
-        <v>148749.6026711185</v>
+        <v>54931.56949402605</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -754,46 +737,46 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>240014.6</v>
+        <v>206736.6</v>
       </c>
       <c r="E6">
-        <v>0.6835550004343636</v>
+        <v>0.2270599845815524</v>
       </c>
       <c r="F6">
-        <v>164063.1800072536</v>
+        <v>46941.60920844255</v>
       </c>
       <c r="G6">
-        <v>0.2306524503261371</v>
+        <v>0.7118605535782938</v>
       </c>
       <c r="H6">
-        <v>55359.95560404766</v>
+        <v>147167.6305208943</v>
       </c>
       <c r="I6">
-        <v>0.07058922159035338</v>
+        <v>0.05478948216668568</v>
       </c>
       <c r="J6">
-        <v>16942.44378432003</v>
+        <v>11326.99125890123</v>
       </c>
       <c r="K6">
-        <v>0.01520332764914613</v>
+        <v>0.006289979673468295</v>
       </c>
       <c r="L6">
-        <v>3649.020604378748</v>
+        <v>1300.369011761945</v>
       </c>
       <c r="M6">
-        <v>0.3164449995656366</v>
+        <v>0.7729400154184478</v>
       </c>
       <c r="N6">
-        <v>75951.41999274644</v>
+        <v>159794.9907915574</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -801,31 +784,31 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>81852.39999999999</v>
+        <v>284225.2</v>
       </c>
       <c r="E7">
-        <v>0.6383041290808265</v>
+        <v>0.733726583164141</v>
       </c>
       <c r="F7">
-        <v>52246.72489517544</v>
+        <v>208543.5848451446</v>
       </c>
       <c r="G7">
-        <v>0.3183657435978239</v>
+        <v>0.2287238332697721</v>
       </c>
       <c r="H7">
-        <v>26059.00019126652</v>
+        <v>65009.07725586761</v>
       </c>
       <c r="I7">
-        <v>0.04333012732134963</v>
+        <v>0.03754958356608691</v>
       </c>
       <c r="J7">
-        <v>3546.674913558038</v>
+        <v>10672.53789898776</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -834,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3616958709191735</v>
+        <v>0.266273416835859</v>
       </c>
       <c r="N7">
-        <v>29605.67510482456</v>
+        <v>75681.61515485538</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -848,31 +831,31 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>94049.89999999999</v>
+        <v>114132.2</v>
       </c>
       <c r="E8">
-        <v>0.02955949226839396</v>
+        <v>0.788250531295045</v>
       </c>
       <c r="F8">
-        <v>2780.067291893225</v>
+        <v>89964.76728787232</v>
       </c>
       <c r="G8">
-        <v>0.9264413632932896</v>
+        <v>0.1979001313239725</v>
       </c>
       <c r="H8">
-        <v>87131.71757359756</v>
+        <v>22586.77736829389</v>
       </c>
       <c r="I8">
-        <v>0.04399914443831638</v>
+        <v>0.01384933738098251</v>
       </c>
       <c r="J8">
-        <v>4138.115134509211</v>
+        <v>1580.655343833773</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -881,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9704405077316061</v>
+        <v>0.211749468704955</v>
       </c>
       <c r="N8">
-        <v>91269.83270810677</v>
+        <v>24167.43271212766</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -895,46 +878,46 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>71100.39999999999</v>
+        <v>82380.2</v>
       </c>
       <c r="E9">
-        <v>0.3240093690014216</v>
+        <v>0.744015295561443</v>
       </c>
       <c r="F9">
-        <v>23037.19573974867</v>
+        <v>61292.12885141078</v>
       </c>
       <c r="G9">
-        <v>0.6100240015518493</v>
+        <v>0.1841776148498506</v>
       </c>
       <c r="H9">
-        <v>43372.95051993711</v>
+        <v>15172.58874685366</v>
       </c>
       <c r="I9">
-        <v>0.03910843933938309</v>
+        <v>0.07180708958870648</v>
       </c>
       <c r="J9">
-        <v>2780.625680405873</v>
+        <v>5915.482401735557</v>
       </c>
       <c r="K9">
-        <v>0.0268581901073459</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1909.628059908336</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6759906309985784</v>
+        <v>0.255984704438557</v>
       </c>
       <c r="N9">
-        <v>48063.20426025131</v>
+        <v>21088.07114858922</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -942,46 +925,46 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>206736.6</v>
+        <v>77969.5</v>
       </c>
       <c r="E10">
-        <v>0.415143870327607</v>
+        <v>0.7750425416996444</v>
       </c>
       <c r="F10">
-        <v>85825.43226237033</v>
+        <v>60429.67945505042</v>
       </c>
       <c r="G10">
-        <v>0.4363436276887162</v>
+        <v>0.2086694046749435</v>
       </c>
       <c r="H10">
-        <v>90208.19802003104</v>
+        <v>16269.84914780301</v>
       </c>
       <c r="I10">
-        <v>0.1212215592663288</v>
+        <v>0.01628805362541219</v>
       </c>
       <c r="J10">
-        <v>25060.93300941931</v>
+        <v>1269.971397146576</v>
       </c>
       <c r="K10">
-        <v>0.02729094271734794</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5642.036708179273</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5848561296723929</v>
+        <v>0.2249574583003557</v>
       </c>
       <c r="N10">
-        <v>120911.1677376296</v>
+        <v>17539.82054494958</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -989,46 +972,46 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>79356.89999999999</v>
+        <v>469612.4999999999</v>
       </c>
       <c r="E11">
-        <v>0.532362689952615</v>
+        <v>0.75713490742366</v>
       </c>
       <c r="F11">
-        <v>42246.65275030067</v>
+        <v>355560.0167124935</v>
       </c>
       <c r="G11">
-        <v>0.4337115220087651</v>
+        <v>0.202310984748388</v>
       </c>
       <c r="H11">
-        <v>34418.00188089737</v>
+        <v>95007.76732515232</v>
       </c>
       <c r="I11">
-        <v>0.01970511522648723</v>
+        <v>0.03470913534334934</v>
       </c>
       <c r="J11">
-        <v>1563.736858516825</v>
+        <v>16299.84382142864</v>
       </c>
       <c r="K11">
-        <v>0.01422067281213265</v>
+        <v>0.005844972484602758</v>
       </c>
       <c r="L11">
-        <v>1128.508510285129</v>
+        <v>2744.872140925512</v>
       </c>
       <c r="M11">
-        <v>0.4676373100473849</v>
+        <v>0.24286509257634</v>
       </c>
       <c r="N11">
-        <v>37110.24724969932</v>
+        <v>114052.4832875065</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1036,46 +1019,46 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>94126.89999999999</v>
+        <v>93762.89999999999</v>
       </c>
       <c r="E12">
-        <v>0.7849424480387786</v>
+        <v>0.7055803936081189</v>
       </c>
       <c r="F12">
-        <v>73884.19931230129</v>
+        <v>66157.26388783868</v>
       </c>
       <c r="G12">
-        <v>0.2001274017281462</v>
+        <v>0.1407974181761201</v>
       </c>
       <c r="H12">
-        <v>18837.37192972504</v>
+        <v>13201.57424070573</v>
       </c>
       <c r="I12">
-        <v>0.01493015023307543</v>
+        <v>0.07927239508840012</v>
       </c>
       <c r="J12">
-        <v>1405.328757973668</v>
+        <v>7432.809653434151</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.07434979312736086</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6971.252218021423</v>
       </c>
       <c r="M12">
-        <v>0.2150575519612216</v>
+        <v>0.2944196063918811</v>
       </c>
       <c r="N12">
-        <v>20242.70068769871</v>
+        <v>27605.63611216131</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1083,46 +1066,46 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>82380.2</v>
+        <v>103387.2</v>
       </c>
       <c r="E13">
-        <v>0.06779661016949153</v>
+        <v>0.4578117596577789</v>
       </c>
       <c r="F13">
-        <v>5585.098305084745</v>
+        <v>47331.87595809072</v>
       </c>
       <c r="G13">
-        <v>0.9013952900419885</v>
+        <v>0.4940804763796263</v>
       </c>
       <c r="H13">
-        <v>74257.12427271702</v>
+        <v>51081.5970275557</v>
       </c>
       <c r="I13">
-        <v>0.03080809978851995</v>
+        <v>0.04565670807471717</v>
       </c>
       <c r="J13">
-        <v>2537.977422198231</v>
+        <v>4720.319209062399</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.002451055887877653</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>253.4078052911844</v>
       </c>
       <c r="M13">
-        <v>0.9322033898305084</v>
+        <v>0.5421882403422211</v>
       </c>
       <c r="N13">
-        <v>76795.10169491525</v>
+        <v>56055.32404190928</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1130,46 +1113,46 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>75315.79999999999</v>
+        <v>94049.89999999999</v>
       </c>
       <c r="E14">
-        <v>0.6378440558813363</v>
+        <v>0.6627305475320812</v>
       </c>
       <c r="F14">
-        <v>48039.73534394754</v>
+        <v>62329.74172233748</v>
       </c>
       <c r="G14">
-        <v>0.3179624051588353</v>
+        <v>0.262151902200215</v>
       </c>
       <c r="H14">
-        <v>23947.59291446181</v>
+        <v>24655.36018674</v>
       </c>
       <c r="I14">
-        <v>0.04419353895982836</v>
+        <v>0.07129430104075925</v>
       </c>
       <c r="J14">
-        <v>3328.47174159064</v>
+        <v>6705.221883453302</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.003823249226944611</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>359.5762074692179</v>
       </c>
       <c r="M14">
-        <v>0.3621559441186637</v>
+        <v>0.3372694524679188</v>
       </c>
       <c r="N14">
-        <v>27276.06465605245</v>
+        <v>31720.15827766252</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1177,31 +1160,31 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>49284.2</v>
+        <v>240014.6</v>
       </c>
       <c r="E15">
-        <v>0.3827451197253804</v>
+        <v>0.8284969758141019</v>
       </c>
       <c r="F15">
-        <v>18863.28702956959</v>
+        <v>198851.3702512313</v>
       </c>
       <c r="G15">
-        <v>0.5574818291363522</v>
+        <v>0.1343713715460913</v>
       </c>
       <c r="H15">
-        <v>27475.04596352181</v>
+        <v>32251.09099308649</v>
       </c>
       <c r="I15">
-        <v>0.05977305113826745</v>
+        <v>0.03713165263980694</v>
       </c>
       <c r="J15">
-        <v>2945.8670069086</v>
+        <v>8912.138755682205</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1210,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6172548802746197</v>
+        <v>0.1715030241858983</v>
       </c>
       <c r="N15">
-        <v>30420.91297043041</v>
+        <v>41163.22974876869</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1224,46 +1207,46 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>469612.4999999999</v>
+        <v>173573.4</v>
       </c>
       <c r="E16">
-        <v>0.3970954014604184</v>
+        <v>0.5231251538340025</v>
       </c>
       <c r="F16">
-        <v>186480.9642183307</v>
+        <v>90800.61157649085</v>
       </c>
       <c r="G16">
-        <v>0.5860764507312832</v>
+        <v>0.4127003515680966</v>
       </c>
       <c r="H16">
-        <v>275228.8272190447</v>
+        <v>71633.80320286985</v>
       </c>
       <c r="I16">
-        <v>0.01184023204483496</v>
+        <v>0.057412227369411</v>
       </c>
       <c r="J16">
-        <v>5560.320971155059</v>
+        <v>9965.235506081723</v>
       </c>
       <c r="K16">
-        <v>0.004987915763463421</v>
+        <v>0.006762267228489873</v>
       </c>
       <c r="L16">
-        <v>2342.387591469465</v>
+        <v>1173.749714557564</v>
       </c>
       <c r="M16">
-        <v>0.6029045985395817</v>
+        <v>0.4768748461659975</v>
       </c>
       <c r="N16">
-        <v>283131.5357816693</v>
+        <v>82772.78842350913</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1271,31 +1254,31 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>77969.5</v>
+        <v>70760.2</v>
       </c>
       <c r="E17">
-        <v>0.4233620041227185</v>
+        <v>0.8413196571090189</v>
       </c>
       <c r="F17">
-        <v>33009.3237804463</v>
+        <v>59531.94720096559</v>
       </c>
       <c r="G17">
-        <v>0.5037295276714084</v>
+        <v>0.1274054478544758</v>
       </c>
       <c r="H17">
-        <v>39275.53940777588</v>
+        <v>9015.234971272279</v>
       </c>
       <c r="I17">
-        <v>0.072908468205873</v>
+        <v>0.03127489503650524</v>
       </c>
       <c r="J17">
-        <v>5684.636811777815</v>
+        <v>2213.017827762118</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1304,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5766379958772815</v>
+        <v>0.158680342890981</v>
       </c>
       <c r="N17">
-        <v>44960.1762195537</v>
+        <v>11228.2527990344</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1318,46 +1301,46 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>85275.39999999999</v>
+        <v>81840.5</v>
       </c>
       <c r="E18">
-        <v>0.2520655642440736</v>
+        <v>0.9280011500166105</v>
       </c>
       <c r="F18">
-        <v>21494.99181713907</v>
+        <v>75948.07811793442</v>
       </c>
       <c r="G18">
-        <v>0.7281090732791751</v>
+        <v>0.03473423693398327</v>
       </c>
       <c r="H18">
-        <v>62089.79246751096</v>
+        <v>2842.667317795658</v>
       </c>
       <c r="I18">
-        <v>0.01982536247675131</v>
+        <v>0.02768359375663226</v>
       </c>
       <c r="J18">
-        <v>1690.615715349959</v>
+        <v>2265.639154839662</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.009581019292773741</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>784.1154094302493</v>
       </c>
       <c r="M18">
-        <v>0.7479344357559263</v>
+        <v>0.07199884998338928</v>
       </c>
       <c r="N18">
-        <v>63780.40818286092</v>
+        <v>5892.42188206557</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1365,31 +1348,31 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>81840.5</v>
+        <v>85275.39999999999</v>
       </c>
       <c r="E19">
-        <v>0.574889113875229</v>
+        <v>0.8712246543406373</v>
       </c>
       <c r="F19">
-        <v>47049.21252410568</v>
+        <v>74294.03088875957</v>
       </c>
       <c r="G19">
-        <v>0.425110886124771</v>
+        <v>0.09293107349789591</v>
       </c>
       <c r="H19">
-        <v>34791.28747589432</v>
+        <v>7924.734464962472</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0358442721614668</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3056.634646277946</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1398,295 +1381,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.425110886124771</v>
+        <v>0.1287753456593627</v>
       </c>
       <c r="N19">
-        <v>34791.28747589432</v>
+        <v>10981.36911124042</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20">
-        <v>116609.5</v>
-      </c>
-      <c r="E20">
-        <v>0.5989640365549217</v>
-      </c>
-      <c r="F20">
-        <v>69844.89682065113</v>
-      </c>
-      <c r="G20">
-        <v>0.3418950886459011</v>
-      </c>
-      <c r="H20">
-        <v>39868.2153394542</v>
-      </c>
-      <c r="I20">
-        <v>0.05461084879827191</v>
-      </c>
-      <c r="J20">
-        <v>6368.143772942088</v>
-      </c>
-      <c r="K20">
-        <v>0.004530026000905264</v>
-      </c>
-      <c r="L20">
-        <v>528.2440669525623</v>
-      </c>
-      <c r="M20">
-        <v>0.4010359634450783</v>
-      </c>
-      <c r="N20">
-        <v>46764.60317934885</v>
-      </c>
-      <c r="O20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21">
-        <v>103387.2</v>
-      </c>
-      <c r="E21">
-        <v>0.1127040360229116</v>
-      </c>
-      <c r="F21">
-        <v>11652.15471310797</v>
-      </c>
-      <c r="G21">
-        <v>0.5418856215796917</v>
-      </c>
-      <c r="H21">
-        <v>56024.0371353839</v>
-      </c>
-      <c r="I21">
-        <v>0.3454103423973967</v>
-      </c>
-      <c r="J21">
-        <v>35711.00815150813</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0.8872959639770883</v>
-      </c>
-      <c r="N21">
-        <v>91735.04528689203</v>
-      </c>
-      <c r="O21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
         <v>35</v>
-      </c>
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>70760.2</v>
-      </c>
-      <c r="E22">
-        <v>0.2320836194380281</v>
-      </c>
-      <c r="F22">
-        <v>16422.28332815876</v>
-      </c>
-      <c r="G22">
-        <v>0.7538967137359883</v>
-      </c>
-      <c r="H22">
-        <v>53345.88224330128</v>
-      </c>
-      <c r="I22">
-        <v>0.006826576109431342</v>
-      </c>
-      <c r="J22">
-        <v>483.0498908185836</v>
-      </c>
-      <c r="K22">
-        <v>0.00719309071655216</v>
-      </c>
-      <c r="L22">
-        <v>508.9845377213741</v>
-      </c>
-      <c r="M22">
-        <v>0.7679163805619719</v>
-      </c>
-      <c r="N22">
-        <v>54337.91667184123</v>
-      </c>
-      <c r="O22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23">
-        <v>114132.2</v>
-      </c>
-      <c r="E23">
-        <v>0.4992614475627769</v>
-      </c>
-      <c r="F23">
-        <v>56981.80738552436</v>
-      </c>
-      <c r="G23">
-        <v>0.500738552437223</v>
-      </c>
-      <c r="H23">
-        <v>57150.39261447562</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.500738552437223</v>
-      </c>
-      <c r="N23">
-        <v>57150.39261447562</v>
-      </c>
-      <c r="O23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24">
-        <v>284225.2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>284225.2</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>284225.2</v>
-      </c>
-      <c r="O24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25">
-        <v>98820.39999999999</v>
-      </c>
-      <c r="E25">
-        <v>0.47335262123134</v>
-      </c>
-      <c r="F25">
-        <v>46776.89537112951</v>
-      </c>
-      <c r="G25">
-        <v>0.4783048653060122</v>
-      </c>
-      <c r="H25">
-        <v>47266.27811148625</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0.04834251346264776</v>
-      </c>
-      <c r="L25">
-        <v>4777.226517384237</v>
-      </c>
-      <c r="M25">
-        <v>0.52664737876866</v>
-      </c>
-      <c r="N25">
-        <v>52043.50462887049</v>
-      </c>
-      <c r="O25" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,46 +1455,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>34728.6</v>
+        <v>13446.7</v>
       </c>
       <c r="E2">
-        <v>0.1248321621436202</v>
+        <v>0.7270796683863092</v>
       </c>
       <c r="F2">
-        <v>4335.246226220928</v>
+        <v>9776.822176890184</v>
       </c>
       <c r="G2">
-        <v>0.6433016769084512</v>
+        <v>0.2478516447413738</v>
       </c>
       <c r="H2">
-        <v>22340.96661668284</v>
+        <v>3332.786711343831</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02506868687231699</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>337.0911117659848</v>
       </c>
       <c r="K2">
-        <v>0.2318661609479286</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8052.387157096233</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8751678378563799</v>
+        <v>0.2729203316136907</v>
       </c>
       <c r="N2">
-        <v>30393.35377377907</v>
+        <v>3669.877823109815</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1801,46 +1502,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>16532.2</v>
+        <v>7040.6</v>
       </c>
       <c r="E3">
-        <v>0.3642645338556544</v>
+        <v>0.3704689425728269</v>
       </c>
       <c r="F3">
-        <v>6022.094126608449</v>
+        <v>2608.323637078245</v>
       </c>
       <c r="G3">
-        <v>0.5533882858619658</v>
+        <v>0.5650623570375251</v>
       </c>
       <c r="H3">
-        <v>9148.725819527192</v>
+        <v>3978.378030958399</v>
       </c>
       <c r="I3">
-        <v>0.08234718028237983</v>
+        <v>0.01636224446339494</v>
       </c>
       <c r="J3">
-        <v>1361.38005386436</v>
+        <v>115.2000183689784</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.04810645592625317</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>338.6983135943781</v>
       </c>
       <c r="M3">
-        <v>0.6357354661443456</v>
+        <v>0.6295310574271732</v>
       </c>
       <c r="N3">
-        <v>10510.10587339155</v>
+        <v>4432.276362921755</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1848,46 +1549,46 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>13394.7</v>
+        <v>10157.2</v>
       </c>
       <c r="E4">
-        <v>0.1420994377392197</v>
+        <v>0.4623817250563145</v>
       </c>
       <c r="F4">
-        <v>1903.379338685527</v>
+        <v>4696.503657741998</v>
       </c>
       <c r="G4">
-        <v>0.7572584716690471</v>
+        <v>0.4704909476084193</v>
       </c>
       <c r="H4">
-        <v>10143.25005046539</v>
+        <v>4778.870653048237</v>
       </c>
       <c r="I4">
-        <v>0.08941866636748466</v>
+        <v>0.03162187352604652</v>
       </c>
       <c r="J4">
-        <v>1197.736210392547</v>
+        <v>321.1896937787598</v>
       </c>
       <c r="K4">
-        <v>0.01122342422424841</v>
+        <v>0.03550545380921968</v>
       </c>
       <c r="L4">
-        <v>150.3344004565402</v>
+        <v>360.6359954310062</v>
       </c>
       <c r="M4">
-        <v>0.8579005622607802</v>
+        <v>0.5376182749436855</v>
       </c>
       <c r="N4">
-        <v>11491.32066131447</v>
+        <v>5460.696342258003</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1895,172 +1596,172 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>24796.2</v>
+        <v>11336.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.2290468753263188</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2596.635711511879</v>
       </c>
       <c r="G5">
-        <v>0.7537660757634015</v>
+        <v>0.7456564673636036</v>
       </c>
       <c r="H5">
-        <v>18690.53436784446</v>
+        <v>8453.283673560965</v>
       </c>
       <c r="I5">
-        <v>0.2462339242365985</v>
+        <v>0.02033745809713731</v>
       </c>
       <c r="J5">
-        <v>6105.665632155544</v>
+        <v>230.5596612098166</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.004959199212940202</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>56.22095371733919</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.770953124673681</v>
       </c>
       <c r="N5">
-        <v>24796.2</v>
+        <v>8740.06428848812</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>11336.7</v>
+        <v>29533.8</v>
       </c>
       <c r="E6">
-        <v>0.2754979069801127</v>
+        <v>0.02755313451614629</v>
       </c>
       <c r="F6">
-        <v>3123.237122061444</v>
+        <v>813.7487641729615</v>
       </c>
       <c r="G6">
-        <v>0.6697504309158592</v>
+        <v>0.8703796324816109</v>
       </c>
       <c r="H6">
-        <v>7592.759710163821</v>
+        <v>25705.6179897854</v>
       </c>
       <c r="I6">
-        <v>0.05475166210402815</v>
+        <v>0.02587696548515992</v>
       </c>
       <c r="J6">
-        <v>620.703167774736</v>
+        <v>764.2451232456161</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.07619026751708298</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2250.188122796026</v>
       </c>
       <c r="M6">
-        <v>0.7245020930198873</v>
+        <v>0.9724468654838538</v>
       </c>
       <c r="N6">
-        <v>8213.462877938557</v>
+        <v>28720.05123582704</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>12182.2</v>
+        <v>40603.60000000001</v>
       </c>
       <c r="E7">
-        <v>0.1982373979350833</v>
+        <v>0.3222400039960961</v>
       </c>
       <c r="F7">
-        <v>2414.967629124772</v>
+        <v>13084.10422625589</v>
       </c>
       <c r="G7">
-        <v>0.6886861461637087</v>
+        <v>0.5983260583891122</v>
       </c>
       <c r="H7">
-        <v>8389.712369795532</v>
+        <v>24294.19194440816</v>
       </c>
       <c r="I7">
-        <v>0.0721992037249477</v>
+        <v>0.06128243946298616</v>
       </c>
       <c r="J7">
-        <v>879.545139618058</v>
+        <v>2488.287658979305</v>
       </c>
       <c r="K7">
-        <v>0.0408772521762602</v>
+        <v>0.01815149815180555</v>
       </c>
       <c r="L7">
-        <v>497.9748614616371</v>
+        <v>737.0161703566517</v>
       </c>
       <c r="M7">
-        <v>0.8017626020649167</v>
+        <v>0.6777599960039039</v>
       </c>
       <c r="N7">
-        <v>9767.232370875226</v>
+        <v>27519.49577374412</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>40603.60000000001</v>
+        <v>16304.6</v>
       </c>
       <c r="E8">
-        <v>0.6116910270420185</v>
+        <v>0.6561172036829065</v>
       </c>
       <c r="F8">
-        <v>24836.8577856033</v>
+        <v>10697.72855916832</v>
       </c>
       <c r="G8">
-        <v>0.1923175706226276</v>
+        <v>0.3094031803918215</v>
       </c>
       <c r="H8">
-        <v>7808.785710532921</v>
+        <v>5044.695095016492</v>
       </c>
       <c r="I8">
-        <v>0.1959914023353538</v>
+        <v>0.03447961592527199</v>
       </c>
       <c r="J8">
-        <v>7957.956503863773</v>
+        <v>562.1763458151897</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2069,13 +1770,248 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3883089729579814</v>
+        <v>0.3438827963170935</v>
       </c>
       <c r="N8">
-        <v>15766.74221439669</v>
+        <v>5606.871440831682</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>11138.5</v>
+      </c>
+      <c r="E9">
+        <v>0.415503596832856</v>
+      </c>
+      <c r="F9">
+        <v>4628.086813322766</v>
+      </c>
+      <c r="G9">
+        <v>0.4475311001319643</v>
+      </c>
+      <c r="H9">
+        <v>4984.825158819885</v>
+      </c>
+      <c r="I9">
+        <v>0.07734045592069266</v>
+      </c>
+      <c r="J9">
+        <v>861.4566682726353</v>
+      </c>
+      <c r="K9">
+        <v>0.05962484711448712</v>
+      </c>
+      <c r="L9">
+        <v>664.1313595847147</v>
+      </c>
+      <c r="M9">
+        <v>0.5844964031671441</v>
+      </c>
+      <c r="N9">
+        <v>6510.413186677235</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>13394.7</v>
+      </c>
+      <c r="E10">
+        <v>0.5021692779327682</v>
+      </c>
+      <c r="F10">
+        <v>6726.406827126051</v>
+      </c>
+      <c r="G10">
+        <v>0.3473159447610764</v>
+      </c>
+      <c r="H10">
+        <v>4652.19288529119</v>
+      </c>
+      <c r="I10">
+        <v>0.05296887241493749</v>
+      </c>
+      <c r="J10">
+        <v>709.5021553363632</v>
+      </c>
+      <c r="K10">
+        <v>0.09754590489121788</v>
+      </c>
+      <c r="L10">
+        <v>1306.598132246396</v>
+      </c>
+      <c r="M10">
+        <v>0.4978307220672317</v>
+      </c>
+      <c r="N10">
+        <v>6668.29317287395</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>14769.6</v>
+      </c>
+      <c r="E11">
+        <v>0.2857523083103504</v>
+      </c>
+      <c r="F11">
+        <v>4220.447292820551</v>
+      </c>
+      <c r="G11">
+        <v>0.539755779844528</v>
+      </c>
+      <c r="H11">
+        <v>7971.976965991742</v>
+      </c>
+      <c r="I11">
+        <v>0.1548128825753023</v>
+      </c>
+      <c r="J11">
+        <v>2286.524350484184</v>
+      </c>
+      <c r="K11">
+        <v>0.0196790292698192</v>
+      </c>
+      <c r="L11">
+        <v>290.6513907035217</v>
+      </c>
+      <c r="M11">
+        <v>0.7142476916896495</v>
+      </c>
+      <c r="N11">
+        <v>10549.15270717945</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>34287.8</v>
+      </c>
+      <c r="E12">
+        <v>0.5288390939456404</v>
+      </c>
+      <c r="F12">
+        <v>18132.72908538933</v>
+      </c>
+      <c r="G12">
+        <v>0.4371672372260255</v>
+      </c>
+      <c r="H12">
+        <v>14989.50279655852</v>
+      </c>
+      <c r="I12">
+        <v>0.03399366882833411</v>
+      </c>
+      <c r="J12">
+        <v>1165.568118052154</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.4711609060543596</v>
+      </c>
+      <c r="N12">
+        <v>16155.07091461067</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>24796.2</v>
+      </c>
+      <c r="E13">
+        <v>0.166584216418882</v>
+      </c>
+      <c r="F13">
+        <v>4130.655547165882</v>
+      </c>
+      <c r="G13">
+        <v>0.8047301983303234</v>
+      </c>
+      <c r="H13">
+        <v>19954.25094383837</v>
+      </c>
+      <c r="I13">
+        <v>0.02868558525079472</v>
+      </c>
+      <c r="J13">
+        <v>711.293508995756</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.8334157835811181</v>
+      </c>
+      <c r="N13">
+        <v>20665.54445283412</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2143,46 +2079,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>69457.2</v>
+        <v>6723.35</v>
       </c>
       <c r="E2">
-        <v>0.05645649344330097</v>
+        <v>0.6081671508635386</v>
       </c>
       <c r="F2">
-        <v>3921.309956390044</v>
+        <v>4088.920613758372</v>
       </c>
       <c r="G2">
-        <v>0.8782205678417633</v>
+        <v>0.3533662280656332</v>
       </c>
       <c r="H2">
-        <v>60998.74162469892</v>
+        <v>2375.804829465075</v>
       </c>
       <c r="I2">
-        <v>0.02926185436586137</v>
+        <v>0.03846662107082834</v>
       </c>
       <c r="J2">
-        <v>2032.446471060506</v>
+        <v>258.6245567765537</v>
       </c>
       <c r="K2">
-        <v>0.03606108434907427</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2504.701947850521</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9435435065566989</v>
+        <v>0.3918328491364615</v>
       </c>
       <c r="N2">
-        <v>65535.89004360994</v>
+        <v>2634.429386241628</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2190,46 +2126,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>33064.4</v>
+        <v>3520.3</v>
       </c>
       <c r="E3">
-        <v>0.1983543954921146</v>
+        <v>0.1910479173721227</v>
       </c>
       <c r="F3">
-        <v>6558.469074309476</v>
+        <v>672.5459835250837</v>
       </c>
       <c r="G3">
-        <v>0.7727655231027029</v>
+        <v>0.7016030798034602</v>
       </c>
       <c r="H3">
-        <v>25551.02836207701</v>
+        <v>2469.853321832121</v>
       </c>
       <c r="I3">
-        <v>0.02888008140518256</v>
+        <v>0.03239729795231575</v>
       </c>
       <c r="J3">
-        <v>954.9025636135183</v>
+        <v>114.0482079815371</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.07495170487210148</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>263.8524866612589</v>
       </c>
       <c r="M3">
-        <v>0.8016456045078855</v>
+        <v>0.8089520826278773</v>
       </c>
       <c r="N3">
-        <v>26505.93092569053</v>
+        <v>2847.754016474917</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2237,46 +2173,46 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>26789.4</v>
+        <v>5078.6</v>
       </c>
       <c r="E4">
-        <v>0.1648739801020473</v>
+        <v>0.4865108496529467</v>
       </c>
       <c r="F4">
-        <v>4416.875002545786</v>
+        <v>2470.794001047455</v>
       </c>
       <c r="G4">
-        <v>0.7580516036571088</v>
+        <v>0.5104261264798283</v>
       </c>
       <c r="H4">
-        <v>20307.74763101175</v>
+        <v>2592.250125940456</v>
       </c>
       <c r="I4">
-        <v>0.07078550502516925</v>
+        <v>0.003063023867225012</v>
       </c>
       <c r="J4">
-        <v>1896.301208321269</v>
+        <v>15.55587301208895</v>
       </c>
       <c r="K4">
-        <v>0.006288911215674718</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>168.4761581211963</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8351260198979528</v>
+        <v>0.5134891503470533</v>
       </c>
       <c r="N4">
-        <v>22372.52499745422</v>
+        <v>2607.805998952545</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2284,31 +2220,31 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>49592.4</v>
+        <v>5668.35</v>
       </c>
       <c r="E5">
-        <v>0.520955441535437</v>
+        <v>0.4002815258973037</v>
       </c>
       <c r="F5">
-        <v>25835.43063880201</v>
+        <v>2268.935787319982</v>
       </c>
       <c r="G5">
-        <v>0.3428546491496662</v>
+        <v>0.5573789419398539</v>
       </c>
       <c r="H5">
-        <v>17002.9849024899</v>
+        <v>3159.418925544771</v>
       </c>
       <c r="I5">
-        <v>0.1361899093148968</v>
+        <v>0.04233953216284244</v>
       </c>
       <c r="J5">
-        <v>6753.984458708088</v>
+        <v>239.995287135248</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2317,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.479044558464563</v>
+        <v>0.5997184741026964</v>
       </c>
       <c r="N5">
-        <v>23756.96936119799</v>
+        <v>3399.414212680019</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2331,78 +2267,78 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>68575.60000000001</v>
+        <v>14766.9</v>
       </c>
       <c r="E6">
-        <v>0.3283698247099794</v>
+        <v>0.0800334357393315</v>
       </c>
       <c r="F6">
-        <v>22518.15775138166</v>
+        <v>1181.845742219135</v>
       </c>
       <c r="G6">
-        <v>0.4943305128261287</v>
+        <v>0.9199665642606685</v>
       </c>
       <c r="H6">
-        <v>33899.01151535947</v>
+        <v>13585.05425778087</v>
       </c>
       <c r="I6">
-        <v>0.1410594302040062</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9673.235061897845</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03624023225988577</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2485.195671361023</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6716301752900207</v>
+        <v>0.9199665642606685</v>
       </c>
       <c r="N6">
-        <v>46057.44224861834</v>
+        <v>13585.05425778087</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>26871.4</v>
+        <v>20301.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5308853284484077</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10777.92776109389</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.4114189095907737</v>
       </c>
       <c r="H7">
-        <v>26871.4</v>
+        <v>8352.544418729971</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.05769576196081867</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1171.327820176149</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2411,60 +2347,60 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.4691146715515924</v>
       </c>
       <c r="N7">
-        <v>26871.4</v>
+        <v>9523.872238906119</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>20314.4</v>
+        <v>8152.3</v>
       </c>
       <c r="E8">
-        <v>0.2157674398871943</v>
+        <v>0.4739244878327971</v>
       </c>
       <c r="F8">
-        <v>4383.18608084442</v>
+        <v>3863.574602159312</v>
       </c>
       <c r="G8">
-        <v>0.5469988189337376</v>
+        <v>0.4888811443418292</v>
       </c>
       <c r="H8">
-        <v>11111.95280734752</v>
+        <v>3985.505753017895</v>
       </c>
       <c r="I8">
-        <v>0.2315131653077638</v>
+        <v>0.03719436782537369</v>
       </c>
       <c r="J8">
-        <v>4703.051045328037</v>
+        <v>303.2196448227939</v>
       </c>
       <c r="K8">
-        <v>0.005720575871304378</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>116.2100664800257</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7842325601128057</v>
+        <v>0.5260755121672029</v>
       </c>
       <c r="N8">
-        <v>15931.21391915558</v>
+        <v>4288.725397840689</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2472,187 +2408,187 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>59067.60000000001</v>
+        <v>5569.25</v>
       </c>
       <c r="E9">
-        <v>0.3445616317102247</v>
+        <v>0.2678379860181938</v>
       </c>
       <c r="F9">
-        <v>20352.42863720687</v>
+        <v>1491.656703631826</v>
       </c>
       <c r="G9">
-        <v>0.338381675708596</v>
+        <v>0.557064830136097</v>
       </c>
       <c r="H9">
-        <v>19987.39346808507</v>
+        <v>3102.433305235458</v>
       </c>
       <c r="I9">
-        <v>0.3071258719253527</v>
+        <v>0.1390461336267982</v>
       </c>
       <c r="J9">
-        <v>18141.18815253797</v>
+        <v>774.382679701046</v>
       </c>
       <c r="K9">
-        <v>0.009930820655826631</v>
+        <v>0.03605105021891107</v>
       </c>
       <c r="L9">
-        <v>586.5897421701052</v>
+        <v>200.7773114316705</v>
       </c>
       <c r="M9">
-        <v>0.6554383682897753</v>
+        <v>0.7321620139818062</v>
       </c>
       <c r="N9">
-        <v>38715.17136279315</v>
+        <v>4077.593296368175</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>22673.4</v>
+        <v>6697.35</v>
       </c>
       <c r="E10">
-        <v>0.4346292196694759</v>
+        <v>0.5391086050922841</v>
       </c>
       <c r="F10">
-        <v>9854.522149253897</v>
+        <v>3610.599016314809</v>
       </c>
       <c r="G10">
-        <v>0.5613632480570409</v>
+        <v>0.3017891441473183</v>
       </c>
       <c r="H10">
-        <v>12728.01346849651</v>
+        <v>2021.187524555042</v>
       </c>
       <c r="I10">
-        <v>0.004007532273483274</v>
+        <v>0.1407727642291499</v>
       </c>
       <c r="J10">
-        <v>90.86438224959566</v>
+        <v>942.8044725100972</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0183294865312477</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>122.7589866200518</v>
       </c>
       <c r="M10">
-        <v>0.5653707803305241</v>
+        <v>0.4608913949077159</v>
       </c>
       <c r="N10">
-        <v>12818.87785074611</v>
+        <v>3086.750983685191</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>26893.4</v>
+        <v>7384.8</v>
       </c>
       <c r="E11">
-        <v>0.5071829004694658</v>
+        <v>0.3398125165492802</v>
       </c>
       <c r="F11">
-        <v>13639.87261548553</v>
+        <v>2509.447472213125</v>
       </c>
       <c r="G11">
-        <v>0.4641850026411055</v>
+        <v>0.5724602056861854</v>
       </c>
       <c r="H11">
-        <v>12483.51295002831</v>
+        <v>4227.504126951342</v>
       </c>
       <c r="I11">
-        <v>0.02444897310027878</v>
+        <v>0.08070696403144359</v>
       </c>
       <c r="J11">
-        <v>657.5160131750374</v>
+        <v>596.0047879794047</v>
       </c>
       <c r="K11">
-        <v>0.00418312378914996</v>
+        <v>0.007020313733090852</v>
       </c>
       <c r="L11">
-        <v>112.4984213111255</v>
+        <v>51.84361285612933</v>
       </c>
       <c r="M11">
-        <v>0.4928170995305343</v>
+        <v>0.6601874834507199</v>
       </c>
       <c r="N11">
-        <v>13253.52738451447</v>
+        <v>4875.352527786877</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>23537.2</v>
+        <v>17143.9</v>
       </c>
       <c r="E12">
-        <v>0.05387445699270006</v>
+        <v>0.6363356345191588</v>
       </c>
       <c r="F12">
-        <v>1268.05386912858</v>
+        <v>10909.27448463301</v>
       </c>
       <c r="G12">
-        <v>0.8891157359238765</v>
+        <v>0.1949942483540166</v>
       </c>
       <c r="H12">
-        <v>20927.29489958746</v>
+        <v>3342.961894356425</v>
       </c>
       <c r="I12">
-        <v>0.03642530827670726</v>
+        <v>0.1686701171268247</v>
       </c>
       <c r="J12">
-        <v>857.3497659705142</v>
+        <v>2891.663621010571</v>
       </c>
       <c r="K12">
-        <v>0.02058449880671604</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>484.5014653134368</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9461255430072999</v>
+        <v>0.3636643654808413</v>
       </c>
       <c r="N12">
-        <v>22269.14613087142</v>
+        <v>6234.625515366995</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2660,281 +2596,153 @@
         <v>29</v>
       </c>
       <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>12398.1</v>
+      </c>
+      <c r="E13">
+        <v>0.3841326245431426</v>
+      </c>
+      <c r="F13">
+        <v>4762.514692348336</v>
+      </c>
+      <c r="G13">
+        <v>0.5027343927141287</v>
+      </c>
+      <c r="H13">
+        <v>6232.951274309039</v>
+      </c>
+      <c r="I13">
+        <v>0.0564599996025666</v>
+      </c>
+      <c r="J13">
+        <v>699.996721072581</v>
+      </c>
+      <c r="K13">
+        <v>0.05667298314016202</v>
+      </c>
+      <c r="L13">
+        <v>702.6373122700427</v>
+      </c>
+      <c r="M13">
+        <v>0.6158673754568573</v>
+      </c>
+      <c r="N13">
+        <v>7635.585307651662</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>134175</v>
-      </c>
-      <c r="E13">
-        <v>0.7404532979810194</v>
-      </c>
-      <c r="F13">
-        <v>99350.32125660329</v>
-      </c>
-      <c r="G13">
-        <v>0.2595467020189806</v>
-      </c>
-      <c r="H13">
-        <v>34824.67874339672</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.2595467020189806</v>
-      </c>
-      <c r="N13">
-        <v>34824.67874339672</v>
-      </c>
-      <c r="O13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>24364.4</v>
-      </c>
-      <c r="E14">
-        <v>0.5258123167384334</v>
-      </c>
-      <c r="F14">
-        <v>12811.10160994189</v>
-      </c>
-      <c r="G14">
-        <v>0.335042984751411</v>
-      </c>
-      <c r="H14">
-        <v>8163.121297677279</v>
-      </c>
-      <c r="I14">
-        <v>0.1186746010550068</v>
-      </c>
-      <c r="J14">
-        <v>2891.435449944607</v>
-      </c>
-      <c r="K14">
-        <v>0.02047009745514883</v>
-      </c>
-      <c r="L14">
-        <v>498.7416424362282</v>
-      </c>
-      <c r="M14">
-        <v>0.4741876832615666</v>
-      </c>
-      <c r="N14">
-        <v>11553.29839005811</v>
-      </c>
-      <c r="O14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <v>23383</v>
-      </c>
-      <c r="E15">
-        <v>0.06921992735207536</v>
-      </c>
-      <c r="F15">
-        <v>1618.569561273578</v>
-      </c>
-      <c r="G15">
-        <v>0.9307800726479247</v>
-      </c>
-      <c r="H15">
-        <v>21764.43043872642</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0.9307800726479247</v>
-      </c>
-      <c r="N15">
-        <v>21764.43043872642</v>
-      </c>
-      <c r="O15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16">
-        <v>29539.2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.2088718887334435</v>
-      </c>
-      <c r="H16">
-        <v>6169.908495674934</v>
-      </c>
-      <c r="I16">
-        <v>0.7388831832341808</v>
-      </c>
-      <c r="J16">
-        <v>21826.01812619111</v>
-      </c>
-      <c r="K16">
-        <v>0.05224492803237578</v>
-      </c>
-      <c r="L16">
-        <v>1543.273378133955</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>29539.2</v>
-      </c>
-      <c r="O16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>32609.2</v>
-      </c>
-      <c r="E17">
-        <v>0.6162926595001895</v>
-      </c>
-      <c r="F17">
-        <v>20096.81059217358</v>
-      </c>
-      <c r="G17">
-        <v>0.3665115170460788</v>
-      </c>
-      <c r="H17">
-        <v>11951.64736165899</v>
-      </c>
-      <c r="I17">
-        <v>0.01719582345373157</v>
-      </c>
-      <c r="J17">
-        <v>560.7420461674234</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0.3837073404998103</v>
-      </c>
-      <c r="N17">
-        <v>12512.38940782641</v>
-      </c>
-      <c r="O17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>81207.20000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.5666212155110383</v>
-      </c>
-      <c r="F18">
-        <v>46013.722372248</v>
-      </c>
-      <c r="G18">
-        <v>0.138247600965056</v>
-      </c>
-      <c r="H18">
-        <v>11226.7005810895</v>
-      </c>
-      <c r="I18">
-        <v>0.2435179194456369</v>
-      </c>
-      <c r="J18">
-        <v>19775.40838800573</v>
-      </c>
-      <c r="K18">
-        <v>0.0516132640782687</v>
-      </c>
-      <c r="L18">
-        <v>4191.368658656783</v>
-      </c>
-      <c r="M18">
-        <v>0.4333787844889617</v>
-      </c>
-      <c r="N18">
-        <v>35193.47762775201</v>
-      </c>
-      <c r="O18" t="s">
-        <v>42</v>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>22154.4</v>
+      </c>
+      <c r="E2">
+        <v>0.3211198841556461</v>
+      </c>
+      <c r="F2">
+        <v>7114.218361537846</v>
+      </c>
+      <c r="G2">
+        <v>0.6131224478560172</v>
+      </c>
+      <c r="H2">
+        <v>13583.35995878135</v>
+      </c>
+      <c r="I2">
+        <v>0.06408108273750845</v>
+      </c>
+      <c r="J2">
+        <v>1419.677939399857</v>
+      </c>
+      <c r="K2">
+        <v>0.001676585250828165</v>
+      </c>
+      <c r="L2">
+        <v>37.14374028094749</v>
+      </c>
+      <c r="M2">
+        <v>0.6788801158443538</v>
+      </c>
+      <c r="N2">
+        <v>15040.18163846215</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output_test/pin_per_admin_status_test_JIAF.xlsx
+++ b/output_test/pin_per_admin_status_test_JIAF.xlsx
@@ -7,19 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ocap" sheetId="1" r:id="rId1"/>
-    <sheet name="idp" sheetId="2" r:id="rId2"/>
-    <sheet name="ret" sheetId="3" r:id="rId3"/>
-    <sheet name="ndsp" sheetId="4" r:id="rId4"/>
+    <sheet name="Host Community" sheetId="1" r:id="rId1"/>
+    <sheet name="New IDPs" sheetId="2" r:id="rId2"/>
+    <sheet name="Protracted IDPs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="39">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="45">
+  <si>
+    <t>admin_2</t>
   </si>
   <si>
     <t>Admin Pcode</t>
@@ -64,76 +63,94 @@
     <t>Area severity</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
-  </si>
-  <si>
-    <t>ocap</t>
+    <t>afgooye</t>
+  </si>
+  <si>
+    <t>baardheere</t>
+  </si>
+  <si>
+    <t>banadir</t>
+  </si>
+  <si>
+    <t>baraawe</t>
+  </si>
+  <si>
+    <t>baydhaba</t>
+  </si>
+  <si>
+    <t>borama</t>
+  </si>
+  <si>
+    <t>buur_hakaba</t>
+  </si>
+  <si>
+    <t>ceel_waaq</t>
+  </si>
+  <si>
+    <t>diinsoor</t>
+  </si>
+  <si>
+    <t>gaalkacyo</t>
+  </si>
+  <si>
+    <t>galdogob</t>
+  </si>
+  <si>
+    <t>garbahaarey</t>
+  </si>
+  <si>
+    <t>gebiley</t>
+  </si>
+  <si>
+    <t>hargeysa</t>
+  </si>
+  <si>
+    <t>hobyo</t>
+  </si>
+  <si>
+    <t>jariiban</t>
+  </si>
+  <si>
+    <t>kismaayo</t>
+  </si>
+  <si>
+    <t>marka</t>
+  </si>
+  <si>
+    <t>owdweyne</t>
+  </si>
+  <si>
+    <t>qansax_dheere</t>
+  </si>
+  <si>
+    <t>qoryooley</t>
+  </si>
+  <si>
+    <t>waajid</t>
+  </si>
+  <si>
+    <t>wanla_weyn</t>
+  </si>
+  <si>
+    <t>xudur</t>
+  </si>
+  <si>
+    <t>Host Community</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>idp</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>ndsp</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>New IDPs</t>
+  </si>
+  <si>
+    <t>Protracted IDPs</t>
   </si>
 </sst>
 </file>
@@ -491,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,46 +566,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>94126.89999999999</v>
+        <v>243100.2</v>
       </c>
       <c r="E2">
-        <v>0.7384493592810388</v>
+        <v>0.3672078072244576</v>
       </c>
       <c r="F2">
-        <v>69507.94899611041</v>
+        <v>89268.29137782709</v>
       </c>
       <c r="G2">
-        <v>0.2268220210805441</v>
+        <v>0.260922251514731</v>
       </c>
       <c r="H2">
-        <v>21350.05369604627</v>
+        <v>63430.25152768141</v>
       </c>
       <c r="I2">
-        <v>0.02729271835183012</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2568.978971030878</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.007435901286586845</v>
+        <v>0.3718699412608112</v>
       </c>
       <c r="L2">
-        <v>699.9183368124312</v>
+        <v>90401.65709449146</v>
       </c>
       <c r="M2">
-        <v>0.2615506407189611</v>
+        <v>0.6327921927755422</v>
       </c>
       <c r="N2">
-        <v>24618.95100388958</v>
+        <v>153831.9086221729</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -596,46 +613,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>49284.2</v>
+        <v>115725.4</v>
       </c>
       <c r="E3">
-        <v>0.3116750783411931</v>
+        <v>0.3252758779485255</v>
       </c>
       <c r="F3">
-        <v>15360.65689598303</v>
+        <v>37642.68108594429</v>
       </c>
       <c r="G3">
-        <v>0.6481036871282851</v>
+        <v>0.6208405109924784</v>
       </c>
       <c r="H3">
-        <v>31941.27173716783</v>
+        <v>71847.01647080896</v>
       </c>
       <c r="I3">
-        <v>0.04022123453052186</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1982.271366849145</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0538836110589961</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6235.702443246747</v>
       </c>
       <c r="M3">
-        <v>0.688324921658807</v>
+        <v>0.6747241220514745</v>
       </c>
       <c r="N3">
-        <v>33923.54310401698</v>
+        <v>78082.7189140557</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -643,46 +660,46 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>71100.39999999999</v>
+        <v>93762.89999999999</v>
       </c>
       <c r="E4">
-        <v>0.5446002531549328</v>
+        <v>0.4085398290003095</v>
       </c>
       <c r="F4">
-        <v>38721.29583941698</v>
+        <v>38305.87913257311</v>
       </c>
       <c r="G4">
-        <v>0.3939530044196514</v>
+        <v>0.464790151397916</v>
       </c>
       <c r="H4">
-        <v>28010.21619543898</v>
+        <v>43580.07248650766</v>
       </c>
       <c r="I4">
-        <v>0.05514250876819991</v>
+        <v>0.1266700196017745</v>
       </c>
       <c r="J4">
-        <v>3920.65443042252</v>
+        <v>11876.94838091922</v>
       </c>
       <c r="K4">
-        <v>0.00630423365721583</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>448.2335347215084</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4553997468450672</v>
+        <v>0.5914601709996905</v>
       </c>
       <c r="N4">
-        <v>32379.10416058301</v>
+        <v>55457.02086742688</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -690,46 +707,46 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>79356.89999999999</v>
+        <v>173573.4</v>
       </c>
       <c r="E5">
-        <v>0.3077908853039111</v>
+        <v>0.1400468629782472</v>
       </c>
       <c r="F5">
-        <v>24425.33050597394</v>
+        <v>24308.41016646849</v>
       </c>
       <c r="G5">
-        <v>0.6517683121485138</v>
+        <v>0.7168374484157516</v>
       </c>
       <c r="H5">
-        <v>51722.31277033839</v>
+        <v>124423.9131688466</v>
       </c>
       <c r="I5">
-        <v>0.03197296335764478</v>
+        <v>0.1431156886060013</v>
       </c>
       <c r="J5">
-        <v>2537.275255876281</v>
+        <v>24841.0766646849</v>
       </c>
       <c r="K5">
-        <v>0.008467839189930253</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>671.9814678113761</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6922091146960888</v>
+        <v>0.8599531370217528</v>
       </c>
       <c r="N5">
-        <v>54931.56949402605</v>
+        <v>149264.9898335315</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -737,46 +754,46 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>206736.6</v>
+        <v>240014.6</v>
       </c>
       <c r="E6">
-        <v>0.2270599845815524</v>
+        <v>0.6841424905602174</v>
       </c>
       <c r="F6">
-        <v>46941.60920844255</v>
+        <v>164204.1862148143</v>
       </c>
       <c r="G6">
-        <v>0.7118605535782938</v>
+        <v>0.2478636598340334</v>
       </c>
       <c r="H6">
-        <v>147167.6305208943</v>
+        <v>59490.89716960158</v>
       </c>
       <c r="I6">
-        <v>0.05478948216668568</v>
+        <v>0.05567799842263596</v>
       </c>
       <c r="J6">
-        <v>11326.99125890123</v>
+        <v>13363.5325202096</v>
       </c>
       <c r="K6">
-        <v>0.006289979673468295</v>
+        <v>0.01231585118311341</v>
       </c>
       <c r="L6">
-        <v>1300.369011761945</v>
+        <v>2955.984095374491</v>
       </c>
       <c r="M6">
-        <v>0.7729400154184478</v>
+        <v>0.3158575094397827</v>
       </c>
       <c r="N6">
-        <v>159794.9907915574</v>
+        <v>75810.41378518566</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -784,31 +801,31 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>284225.2</v>
+        <v>81852.39999999999</v>
       </c>
       <c r="E7">
-        <v>0.733726583164141</v>
+        <v>0.6076199486080985</v>
       </c>
       <c r="F7">
-        <v>208543.5848451446</v>
+        <v>49735.15108144952</v>
       </c>
       <c r="G7">
-        <v>0.2287238332697721</v>
+        <v>0.3565025464467603</v>
       </c>
       <c r="H7">
-        <v>65009.07725586761</v>
+        <v>29180.5890327788</v>
       </c>
       <c r="I7">
-        <v>0.03754958356608691</v>
+        <v>0.03587750494514114</v>
       </c>
       <c r="J7">
-        <v>10672.53789898776</v>
+        <v>2936.659885771671</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -817,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.266273416835859</v>
+        <v>0.3923800513919015</v>
       </c>
       <c r="N7">
-        <v>75681.61515485538</v>
+        <v>32117.24891855047</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -831,31 +848,31 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>114132.2</v>
+        <v>94049.89999999999</v>
       </c>
       <c r="E8">
-        <v>0.788250531295045</v>
+        <v>0.0225171187705795</v>
       </c>
       <c r="F8">
-        <v>89964.76728787232</v>
+        <v>2117.732768661125</v>
       </c>
       <c r="G8">
-        <v>0.1979001313239725</v>
+        <v>0.9359091565637738</v>
       </c>
       <c r="H8">
-        <v>22586.77736829389</v>
+        <v>88022.16258390727</v>
       </c>
       <c r="I8">
-        <v>0.01384933738098251</v>
+        <v>0.04157372466564665</v>
       </c>
       <c r="J8">
-        <v>1580.655343833773</v>
+        <v>3910.0046474316</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -864,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.211749468704955</v>
+        <v>0.9774828812294205</v>
       </c>
       <c r="N8">
-        <v>24167.43271212766</v>
+        <v>91932.16723133887</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -878,46 +895,46 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>82380.2</v>
+        <v>71100.39999999999</v>
       </c>
       <c r="E9">
-        <v>0.744015295561443</v>
+        <v>0.31219565169959</v>
       </c>
       <c r="F9">
-        <v>61292.12885141078</v>
+        <v>22197.23571410153</v>
       </c>
       <c r="G9">
-        <v>0.1841776148498506</v>
+        <v>0.6070482851367943</v>
       </c>
       <c r="H9">
-        <v>15172.58874685366</v>
+        <v>43161.37589254013</v>
       </c>
       <c r="I9">
-        <v>0.07180708958870648</v>
+        <v>0.05093166531455854</v>
       </c>
       <c r="J9">
-        <v>5915.482401735557</v>
+        <v>3621.261776531238</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.02982439784905713</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2120.526616827101</v>
       </c>
       <c r="M9">
-        <v>0.255984704438557</v>
+        <v>0.6878043483004099</v>
       </c>
       <c r="N9">
-        <v>21088.07114858922</v>
+        <v>48903.16428589847</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -925,46 +942,46 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>77969.5</v>
+        <v>206736.6</v>
       </c>
       <c r="E10">
-        <v>0.7750425416996444</v>
+        <v>0.4068754377930806</v>
       </c>
       <c r="F10">
-        <v>60429.67945505042</v>
+        <v>84116.04463285298</v>
       </c>
       <c r="G10">
-        <v>0.2086694046749435</v>
+        <v>0.4350896414768909</v>
       </c>
       <c r="H10">
-        <v>16269.84914780301</v>
+        <v>89948.95317415141</v>
       </c>
       <c r="I10">
-        <v>0.01628805362541219</v>
+        <v>0.1338323639471067</v>
       </c>
       <c r="J10">
-        <v>1269.971397146576</v>
+        <v>27668.04789238742</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.02420255678292168</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5003.554300608166</v>
       </c>
       <c r="M10">
-        <v>0.2249574583003557</v>
+        <v>0.5931245622069193</v>
       </c>
       <c r="N10">
-        <v>17539.82054494958</v>
+        <v>122620.555367147</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -972,46 +989,46 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>469612.4999999999</v>
+        <v>79356.89999999999</v>
       </c>
       <c r="E11">
-        <v>0.75713490742366</v>
+        <v>0.5591967423662464</v>
       </c>
       <c r="F11">
-        <v>355560.0167124935</v>
+        <v>44376.11996428398</v>
       </c>
       <c r="G11">
-        <v>0.202310984748388</v>
+        <v>0.4105441584507315</v>
       </c>
       <c r="H11">
-        <v>95007.76732515232</v>
+        <v>32579.51172775885</v>
       </c>
       <c r="I11">
-        <v>0.03470913534334934</v>
+        <v>0.01744566633807004</v>
       </c>
       <c r="J11">
-        <v>16299.84382142864</v>
+        <v>1384.433999023591</v>
       </c>
       <c r="K11">
-        <v>0.005844972484602758</v>
+        <v>0.01281343284495202</v>
       </c>
       <c r="L11">
-        <v>2744.872140925512</v>
+        <v>1016.834308933573</v>
       </c>
       <c r="M11">
-        <v>0.24286509257634</v>
+        <v>0.4408032576337536</v>
       </c>
       <c r="N11">
-        <v>114052.4832875065</v>
+        <v>34980.78003571602</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1019,46 +1036,46 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>93762.89999999999</v>
+        <v>94126.89999999999</v>
       </c>
       <c r="E12">
-        <v>0.7055803936081189</v>
+        <v>0.7821095715129932</v>
       </c>
       <c r="F12">
-        <v>66157.26388783868</v>
+        <v>73617.54942684635</v>
       </c>
       <c r="G12">
-        <v>0.1407974181761201</v>
+        <v>0.2045517653843689</v>
       </c>
       <c r="H12">
-        <v>13201.57424070573</v>
+        <v>19253.82356515795</v>
       </c>
       <c r="I12">
-        <v>0.07927239508840012</v>
+        <v>0.01333866310263773</v>
       </c>
       <c r="J12">
-        <v>7432.809653434151</v>
+        <v>1255.527007995671</v>
       </c>
       <c r="K12">
-        <v>0.07434979312736086</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6971.252218021423</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2944196063918811</v>
+        <v>0.2178904284870067</v>
       </c>
       <c r="N12">
-        <v>27605.63611216131</v>
+        <v>20509.35057315362</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1066,46 +1083,46 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>103387.2</v>
+        <v>82380.2</v>
       </c>
       <c r="E13">
-        <v>0.4578117596577789</v>
+        <v>0.1012752383472682</v>
       </c>
       <c r="F13">
-        <v>47331.87595809072</v>
+        <v>8343.074390095622</v>
       </c>
       <c r="G13">
-        <v>0.4940804763796263</v>
+        <v>0.8684315927247759</v>
       </c>
       <c r="H13">
-        <v>51081.5970275557</v>
+        <v>71541.56829498558</v>
       </c>
       <c r="I13">
-        <v>0.04565670807471717</v>
+        <v>0.03029316892795582</v>
       </c>
       <c r="J13">
-        <v>4720.319209062399</v>
+        <v>2495.557314918786</v>
       </c>
       <c r="K13">
-        <v>0.002451055887877653</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>253.4078052911844</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5421882403422211</v>
+        <v>0.8987247616527317</v>
       </c>
       <c r="N13">
-        <v>56055.32404190928</v>
+        <v>74037.12560990437</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1113,46 +1130,46 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>94049.89999999999</v>
+        <v>75315.79999999999</v>
       </c>
       <c r="E14">
-        <v>0.6627305475320812</v>
+        <v>0.6366107215532711</v>
       </c>
       <c r="F14">
-        <v>62329.74172233748</v>
+        <v>47946.84578236185</v>
       </c>
       <c r="G14">
-        <v>0.262151902200215</v>
+        <v>0.3222252527178211</v>
       </c>
       <c r="H14">
-        <v>24655.36018674</v>
+        <v>24268.65268864487</v>
       </c>
       <c r="I14">
-        <v>0.07129430104075925</v>
+        <v>0.04116402572890763</v>
       </c>
       <c r="J14">
-        <v>6705.221883453302</v>
+        <v>3100.30152899326</v>
       </c>
       <c r="K14">
-        <v>0.003823249226944611</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>359.5762074692179</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3372694524679188</v>
+        <v>0.3633892784467287</v>
       </c>
       <c r="N14">
-        <v>31720.15827766252</v>
+        <v>27368.95421763813</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1160,31 +1177,31 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>240014.6</v>
+        <v>49284.2</v>
       </c>
       <c r="E15">
-        <v>0.8284969758141019</v>
+        <v>0.3990249853666549</v>
       </c>
       <c r="F15">
-        <v>198851.3702512313</v>
+        <v>19665.62718380729</v>
       </c>
       <c r="G15">
-        <v>0.1343713715460913</v>
+        <v>0.5494197882293057</v>
       </c>
       <c r="H15">
-        <v>32251.09099308649</v>
+        <v>27077.71472705074</v>
       </c>
       <c r="I15">
-        <v>0.03713165263980694</v>
+        <v>0.05155522640403935</v>
       </c>
       <c r="J15">
-        <v>8912.138755682205</v>
+        <v>2540.858089141956</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1193,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.1715030241858983</v>
+        <v>0.600975014633345</v>
       </c>
       <c r="N15">
-        <v>41163.22974876869</v>
+        <v>29618.5728161927</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1207,46 +1224,46 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>173573.4</v>
+        <v>469612.4999999999</v>
       </c>
       <c r="E16">
-        <v>0.5231251538340025</v>
+        <v>0.3840778682714527</v>
       </c>
       <c r="F16">
-        <v>90800.61157649085</v>
+        <v>180367.7679136276</v>
       </c>
       <c r="G16">
-        <v>0.4127003515680966</v>
+        <v>0.600191029076114</v>
       </c>
       <c r="H16">
-        <v>71633.80320286985</v>
+        <v>281857.2096420065</v>
       </c>
       <c r="I16">
-        <v>0.057412227369411</v>
+        <v>0.01208019677058081</v>
       </c>
       <c r="J16">
-        <v>9965.235506081723</v>
+        <v>5673.011405924382</v>
       </c>
       <c r="K16">
-        <v>0.006762267228489873</v>
+        <v>0.003650905881852593</v>
       </c>
       <c r="L16">
-        <v>1173.749714557564</v>
+        <v>1714.5110384415</v>
       </c>
       <c r="M16">
-        <v>0.4768748461659975</v>
+        <v>0.6159221317285474</v>
       </c>
       <c r="N16">
-        <v>82772.78842350913</v>
+        <v>289244.7320863724</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1254,31 +1271,31 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>70760.2</v>
+        <v>77969.5</v>
       </c>
       <c r="E17">
-        <v>0.8413196571090189</v>
+        <v>0.3922193650560413</v>
       </c>
       <c r="F17">
-        <v>59531.94720096559</v>
+        <v>30581.14778373701</v>
       </c>
       <c r="G17">
-        <v>0.1274054478544758</v>
+        <v>0.5297489775426738</v>
       </c>
       <c r="H17">
-        <v>9015.234971272279</v>
+        <v>41304.2629045135</v>
       </c>
       <c r="I17">
-        <v>0.03127489503650524</v>
+        <v>0.0780316574012849</v>
       </c>
       <c r="J17">
-        <v>2213.017827762118</v>
+        <v>6084.089311749482</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1287,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.158680342890981</v>
+        <v>0.6077806349439587</v>
       </c>
       <c r="N17">
-        <v>11228.2527990344</v>
+        <v>47388.35221626299</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1301,46 +1318,46 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>81840.5</v>
+        <v>85275.39999999999</v>
       </c>
       <c r="E18">
-        <v>0.9280011500166105</v>
+        <v>0.3312437916699029</v>
       </c>
       <c r="F18">
-        <v>75948.07811793442</v>
+        <v>28246.94683216763</v>
       </c>
       <c r="G18">
-        <v>0.03473423693398327</v>
+        <v>0.6445381002407709</v>
       </c>
       <c r="H18">
-        <v>2842.667317795658</v>
+        <v>54963.24431327183</v>
       </c>
       <c r="I18">
-        <v>0.02768359375663226</v>
+        <v>0.02421810808932638</v>
       </c>
       <c r="J18">
-        <v>2265.639154839662</v>
+        <v>2065.208854560542</v>
       </c>
       <c r="K18">
-        <v>0.009581019292773741</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>784.1154094302493</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.07199884998338928</v>
+        <v>0.6687562083300972</v>
       </c>
       <c r="N18">
-        <v>5892.42188206557</v>
+        <v>57028.45316783237</v>
       </c>
       <c r="O18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1348,46 +1365,328 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>81840.5</v>
+      </c>
+      <c r="E19">
+        <v>0.6346527845483608</v>
+      </c>
+      <c r="F19">
+        <v>51940.30121383013</v>
+      </c>
+      <c r="G19">
+        <v>0.3653472154516392</v>
+      </c>
+      <c r="H19">
+        <v>29900.19878616988</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.3653472154516392</v>
+      </c>
+      <c r="N19">
+        <v>29900.19878616988</v>
+      </c>
+      <c r="O19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="D19">
-        <v>85275.39999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.8712246543406373</v>
-      </c>
-      <c r="F19">
-        <v>74294.03088875957</v>
-      </c>
-      <c r="G19">
-        <v>0.09293107349789591</v>
-      </c>
-      <c r="H19">
-        <v>7924.734464962472</v>
-      </c>
-      <c r="I19">
-        <v>0.0358442721614668</v>
-      </c>
-      <c r="J19">
-        <v>3056.634646277946</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0.1287753456593627</v>
-      </c>
-      <c r="N19">
-        <v>10981.36911124042</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>116609.5</v>
+      </c>
+      <c r="E20">
+        <v>0.6168070493596367</v>
+      </c>
+      <c r="F20">
+        <v>71925.56162230254</v>
+      </c>
+      <c r="G20">
+        <v>0.3231751090345821</v>
+      </c>
+      <c r="H20">
+        <v>37685.2878769681</v>
+      </c>
+      <c r="I20">
+        <v>0.0565836839462527</v>
+      </c>
+      <c r="J20">
+        <v>6598.195093130554</v>
+      </c>
+      <c r="K20">
+        <v>0.003434157659528496</v>
+      </c>
+      <c r="L20">
+        <v>400.4554075987882</v>
+      </c>
+      <c r="M20">
+        <v>0.3831929506403633</v>
+      </c>
+      <c r="N20">
+        <v>44683.93837769744</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>103387.2</v>
+      </c>
+      <c r="E21">
+        <v>0.07689526908111914</v>
+      </c>
+      <c r="F21">
+        <v>7949.986563543481</v>
+      </c>
+      <c r="G21">
+        <v>0.6625331773167042</v>
+      </c>
+      <c r="H21">
+        <v>68497.45010987757</v>
+      </c>
+      <c r="I21">
+        <v>0.2605715536021766</v>
+      </c>
+      <c r="J21">
+        <v>26939.76332657895</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.9231047309188809</v>
+      </c>
+      <c r="N21">
+        <v>95437.21343645651</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>35</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>70760.2</v>
+      </c>
+      <c r="E22">
+        <v>0.231073786239104</v>
+      </c>
+      <c r="F22">
+        <v>16350.82732903624</v>
+      </c>
+      <c r="G22">
+        <v>0.7494960759066802</v>
+      </c>
+      <c r="H22">
+        <v>53034.49223037187</v>
+      </c>
+      <c r="I22">
+        <v>0.01180293693859407</v>
+      </c>
+      <c r="J22">
+        <v>835.1781783623042</v>
+      </c>
+      <c r="K22">
+        <v>0.007627200915621774</v>
+      </c>
+      <c r="L22">
+        <v>539.7022622295799</v>
+      </c>
+      <c r="M22">
+        <v>0.768926213760896</v>
+      </c>
+      <c r="N22">
+        <v>54409.37267096375</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>114132.2</v>
+      </c>
+      <c r="E23">
+        <v>0.4938215802239637</v>
+      </c>
+      <c r="F23">
+        <v>56360.94335843747</v>
+      </c>
+      <c r="G23">
+        <v>0.5061784197760363</v>
+      </c>
+      <c r="H23">
+        <v>57771.25664156253</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.5061784197760363</v>
+      </c>
+      <c r="N23">
+        <v>57771.25664156253</v>
+      </c>
+      <c r="O23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>284225.2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>284225.2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>284225.2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>98820.39999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.5081927661121226</v>
+      </c>
+      <c r="F25">
+        <v>50219.8124243064</v>
+      </c>
+      <c r="G25">
+        <v>0.4445537906721672</v>
+      </c>
+      <c r="H25">
+        <v>43930.98341573982</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.0472534432157103</v>
+      </c>
+      <c r="L25">
+        <v>4669.604159953778</v>
+      </c>
+      <c r="M25">
+        <v>0.4918072338878774</v>
+      </c>
+      <c r="N25">
+        <v>48600.5875756936</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1455,46 +1754,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>13446.7</v>
+        <v>34728.6</v>
       </c>
       <c r="E2">
-        <v>0.7270796683863092</v>
+        <v>0.07030002211465218</v>
       </c>
       <c r="F2">
-        <v>9776.822176890184</v>
+        <v>2441.42134801091</v>
       </c>
       <c r="G2">
-        <v>0.2478516447413738</v>
+        <v>0.6874544397211916</v>
       </c>
       <c r="H2">
-        <v>3332.786711343831</v>
+        <v>23874.33025530137</v>
       </c>
       <c r="I2">
-        <v>0.02506868687231699</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>337.0911117659848</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2422455381641563</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8412.848396687717</v>
       </c>
       <c r="M2">
-        <v>0.2729203316136907</v>
+        <v>0.9296999778853479</v>
       </c>
       <c r="N2">
-        <v>3669.877823109815</v>
+        <v>32287.17865198909</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1502,46 +1801,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>7040.6</v>
+        <v>16532.2</v>
       </c>
       <c r="E3">
-        <v>0.3704689425728269</v>
+        <v>0.3679763686446508</v>
       </c>
       <c r="F3">
-        <v>2608.323637078245</v>
+        <v>6083.458921707096</v>
       </c>
       <c r="G3">
-        <v>0.5650623570375251</v>
+        <v>0.5500018251403253</v>
       </c>
       <c r="H3">
-        <v>3978.378030958399</v>
+        <v>9092.740173584885</v>
       </c>
       <c r="I3">
-        <v>0.01636224446339494</v>
+        <v>0.08202180621502399</v>
       </c>
       <c r="J3">
-        <v>115.2000183689784</v>
+        <v>1356.00090470802</v>
       </c>
       <c r="K3">
-        <v>0.04810645592625317</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>338.6983135943781</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6295310574271732</v>
+        <v>0.6320236313553492</v>
       </c>
       <c r="N3">
-        <v>4432.276362921755</v>
+        <v>10448.74107829291</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1549,46 +1848,46 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>10157.2</v>
+        <v>13394.7</v>
       </c>
       <c r="E4">
-        <v>0.4623817250563145</v>
+        <v>0.1574120482889858</v>
       </c>
       <c r="F4">
-        <v>4696.503657741998</v>
+        <v>2108.487163216478</v>
       </c>
       <c r="G4">
-        <v>0.4704909476084193</v>
+        <v>0.7504835098094227</v>
       </c>
       <c r="H4">
-        <v>4778.870653048237</v>
+        <v>10052.50146884428</v>
       </c>
       <c r="I4">
-        <v>0.03162187352604652</v>
+        <v>0.08030602498510539</v>
       </c>
       <c r="J4">
-        <v>321.1896937787598</v>
+        <v>1075.675112867991</v>
       </c>
       <c r="K4">
-        <v>0.03550545380921968</v>
+        <v>0.0117984169164862</v>
       </c>
       <c r="L4">
-        <v>360.6359954310062</v>
+        <v>158.0362550712577</v>
       </c>
       <c r="M4">
-        <v>0.5376182749436855</v>
+        <v>0.8425879517110143</v>
       </c>
       <c r="N4">
-        <v>5460.696342258003</v>
+        <v>11286.21283678352</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1596,172 +1895,172 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>11336.7</v>
+        <v>24796.2</v>
       </c>
       <c r="E5">
-        <v>0.2290468753263188</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2596.635711511879</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7456564673636036</v>
+        <v>0.7681183876505893</v>
       </c>
       <c r="H5">
-        <v>8453.283673560965</v>
+        <v>19046.41716386154</v>
       </c>
       <c r="I5">
-        <v>0.02033745809713731</v>
+        <v>0.2318816123494108</v>
       </c>
       <c r="J5">
-        <v>230.5596612098166</v>
+        <v>5749.782836138462</v>
       </c>
       <c r="K5">
-        <v>0.004959199212940202</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>56.22095371733919</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.770953124673681</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>8740.06428848812</v>
+        <v>24796.2</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>29533.8</v>
+        <v>11336.7</v>
       </c>
       <c r="E6">
-        <v>0.02755313451614629</v>
+        <v>0.3699250413832573</v>
       </c>
       <c r="F6">
-        <v>813.7487641729615</v>
+        <v>4193.729216649573</v>
       </c>
       <c r="G6">
-        <v>0.8703796324816109</v>
+        <v>0.5786127968365421</v>
       </c>
       <c r="H6">
-        <v>25705.6179897854</v>
+        <v>6559.559693896827</v>
       </c>
       <c r="I6">
-        <v>0.02587696548515992</v>
+        <v>0.05146216178020068</v>
       </c>
       <c r="J6">
-        <v>764.2451232456161</v>
+        <v>583.4110894536011</v>
       </c>
       <c r="K6">
-        <v>0.07619026751708298</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2250.188122796026</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9724468654838538</v>
+        <v>0.6300749586167428</v>
       </c>
       <c r="N6">
-        <v>28720.05123582704</v>
+        <v>7142.970783350429</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>40603.60000000001</v>
+        <v>12182.2</v>
       </c>
       <c r="E7">
-        <v>0.3222400039960961</v>
+        <v>0.1844702185502948</v>
       </c>
       <c r="F7">
-        <v>13084.10422625589</v>
+        <v>2247.253096423402</v>
       </c>
       <c r="G7">
-        <v>0.5983260583891122</v>
+        <v>0.7074330049782862</v>
       </c>
       <c r="H7">
-        <v>24294.19194440816</v>
+        <v>8618.090353246478</v>
       </c>
       <c r="I7">
-        <v>0.06128243946298616</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="J7">
-        <v>2488.287658979305</v>
+        <v>845.9861111111111</v>
       </c>
       <c r="K7">
-        <v>0.01815149815180555</v>
+        <v>0.03865233202697455</v>
       </c>
       <c r="L7">
-        <v>737.0161703566517</v>
+        <v>470.8704392190093</v>
       </c>
       <c r="M7">
-        <v>0.6777599960039039</v>
+        <v>0.8155297814497051</v>
       </c>
       <c r="N7">
-        <v>27519.49577374412</v>
+        <v>9934.946903576598</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>16304.6</v>
+        <v>40603.60000000001</v>
       </c>
       <c r="E8">
-        <v>0.6561172036829065</v>
+        <v>0.5746509271199128</v>
       </c>
       <c r="F8">
-        <v>10697.72855916832</v>
+        <v>23332.8963844061</v>
       </c>
       <c r="G8">
-        <v>0.3094031803918215</v>
+        <v>0.221940570031059</v>
       </c>
       <c r="H8">
-        <v>5044.695095016492</v>
+        <v>9011.586129313107</v>
       </c>
       <c r="I8">
-        <v>0.03447961592527199</v>
+        <v>0.2034085028490283</v>
       </c>
       <c r="J8">
-        <v>562.1763458151897</v>
+        <v>8259.117486280807</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1770,248 +2069,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3438827963170935</v>
+        <v>0.4253490728800873</v>
       </c>
       <c r="N8">
-        <v>5606.871440831682</v>
+        <v>17270.70361559391</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>11138.5</v>
-      </c>
-      <c r="E9">
-        <v>0.415503596832856</v>
-      </c>
-      <c r="F9">
-        <v>4628.086813322766</v>
-      </c>
-      <c r="G9">
-        <v>0.4475311001319643</v>
-      </c>
-      <c r="H9">
-        <v>4984.825158819885</v>
-      </c>
-      <c r="I9">
-        <v>0.07734045592069266</v>
-      </c>
-      <c r="J9">
-        <v>861.4566682726353</v>
-      </c>
-      <c r="K9">
-        <v>0.05962484711448712</v>
-      </c>
-      <c r="L9">
-        <v>664.1313595847147</v>
-      </c>
-      <c r="M9">
-        <v>0.5844964031671441</v>
-      </c>
-      <c r="N9">
-        <v>6510.413186677235</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>13394.7</v>
-      </c>
-      <c r="E10">
-        <v>0.5021692779327682</v>
-      </c>
-      <c r="F10">
-        <v>6726.406827126051</v>
-      </c>
-      <c r="G10">
-        <v>0.3473159447610764</v>
-      </c>
-      <c r="H10">
-        <v>4652.19288529119</v>
-      </c>
-      <c r="I10">
-        <v>0.05296887241493749</v>
-      </c>
-      <c r="J10">
-        <v>709.5021553363632</v>
-      </c>
-      <c r="K10">
-        <v>0.09754590489121788</v>
-      </c>
-      <c r="L10">
-        <v>1306.598132246396</v>
-      </c>
-      <c r="M10">
-        <v>0.4978307220672317</v>
-      </c>
-      <c r="N10">
-        <v>6668.29317287395</v>
-      </c>
-      <c r="O10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>14769.6</v>
-      </c>
-      <c r="E11">
-        <v>0.2857523083103504</v>
-      </c>
-      <c r="F11">
-        <v>4220.447292820551</v>
-      </c>
-      <c r="G11">
-        <v>0.539755779844528</v>
-      </c>
-      <c r="H11">
-        <v>7971.976965991742</v>
-      </c>
-      <c r="I11">
-        <v>0.1548128825753023</v>
-      </c>
-      <c r="J11">
-        <v>2286.524350484184</v>
-      </c>
-      <c r="K11">
-        <v>0.0196790292698192</v>
-      </c>
-      <c r="L11">
-        <v>290.6513907035217</v>
-      </c>
-      <c r="M11">
-        <v>0.7142476916896495</v>
-      </c>
-      <c r="N11">
-        <v>10549.15270717945</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>34287.8</v>
-      </c>
-      <c r="E12">
-        <v>0.5288390939456404</v>
-      </c>
-      <c r="F12">
-        <v>18132.72908538933</v>
-      </c>
-      <c r="G12">
-        <v>0.4371672372260255</v>
-      </c>
-      <c r="H12">
-        <v>14989.50279655852</v>
-      </c>
-      <c r="I12">
-        <v>0.03399366882833411</v>
-      </c>
-      <c r="J12">
-        <v>1165.568118052154</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0.4711609060543596</v>
-      </c>
-      <c r="N12">
-        <v>16155.07091461067</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>24796.2</v>
-      </c>
-      <c r="E13">
-        <v>0.166584216418882</v>
-      </c>
-      <c r="F13">
-        <v>4130.655547165882</v>
-      </c>
-      <c r="G13">
-        <v>0.8047301983303234</v>
-      </c>
-      <c r="H13">
-        <v>19954.25094383837</v>
-      </c>
-      <c r="I13">
-        <v>0.02868558525079472</v>
-      </c>
-      <c r="J13">
-        <v>711.293508995756</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.8334157835811181</v>
-      </c>
-      <c r="N13">
-        <v>20665.54445283412</v>
-      </c>
-      <c r="O13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2085,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2079,46 +2143,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>6723.35</v>
+        <v>69457.2</v>
       </c>
       <c r="E2">
-        <v>0.6081671508635386</v>
+        <v>0.05979112233808875</v>
       </c>
       <c r="F2">
-        <v>4088.920613758372</v>
+        <v>4152.923942461098</v>
       </c>
       <c r="G2">
-        <v>0.3533662280656332</v>
+        <v>0.8560768746098177</v>
       </c>
       <c r="H2">
-        <v>2375.804829465075</v>
+        <v>59460.70269514903</v>
       </c>
       <c r="I2">
-        <v>0.03846662107082834</v>
+        <v>0.03765043700432381</v>
       </c>
       <c r="J2">
-        <v>258.6245567765537</v>
+        <v>2615.093933096719</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.04648156604776989</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3228.479429293163</v>
       </c>
       <c r="M2">
-        <v>0.3918328491364615</v>
+        <v>0.9402088776619114</v>
       </c>
       <c r="N2">
-        <v>2634.429386241628</v>
+        <v>65304.27605753891</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2126,46 +2190,46 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>3520.3</v>
+        <v>33064.4</v>
       </c>
       <c r="E3">
-        <v>0.1910479173721227</v>
+        <v>0.1936003897003417</v>
       </c>
       <c r="F3">
-        <v>672.5459835250837</v>
+        <v>6401.28072520798</v>
       </c>
       <c r="G3">
-        <v>0.7016030798034602</v>
+        <v>0.7776297796011153</v>
       </c>
       <c r="H3">
-        <v>2469.853321832121</v>
+        <v>25711.86208464312</v>
       </c>
       <c r="I3">
-        <v>0.03239729795231575</v>
+        <v>0.02876983069854294</v>
       </c>
       <c r="J3">
-        <v>114.0482079815371</v>
+        <v>951.2571901489031</v>
       </c>
       <c r="K3">
-        <v>0.07495170487210148</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>263.8524866612589</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8089520826278773</v>
+        <v>0.8063996102996582</v>
       </c>
       <c r="N3">
-        <v>2847.754016474917</v>
+        <v>26663.11927479202</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2173,46 +2237,46 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>5078.6</v>
+        <v>26789.4</v>
       </c>
       <c r="E4">
-        <v>0.4865108496529467</v>
+        <v>0.1612482592317589</v>
       </c>
       <c r="F4">
-        <v>2470.794001047455</v>
+        <v>4319.744115863283</v>
       </c>
       <c r="G4">
-        <v>0.5104261264798283</v>
+        <v>0.7508688010709389</v>
       </c>
       <c r="H4">
-        <v>2592.250125940456</v>
+        <v>20115.32465940981</v>
       </c>
       <c r="I4">
-        <v>0.003063023867225012</v>
+        <v>0.08151954937261985</v>
       </c>
       <c r="J4">
-        <v>15.55587301208895</v>
+        <v>2183.859815962862</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.006363390324682299</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>170.471408764044</v>
       </c>
       <c r="M4">
-        <v>0.5134891503470533</v>
+        <v>0.838751740768241</v>
       </c>
       <c r="N4">
-        <v>2607.805998952545</v>
+        <v>22469.65588413672</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2220,31 +2284,31 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>5668.35</v>
+        <v>49592.4</v>
       </c>
       <c r="E5">
-        <v>0.4002815258973037</v>
+        <v>0.5322906351247978</v>
       </c>
       <c r="F5">
-        <v>2268.935787319982</v>
+        <v>26397.57009336302</v>
       </c>
       <c r="G5">
-        <v>0.5573789419398539</v>
+        <v>0.3470711726312589</v>
       </c>
       <c r="H5">
-        <v>3159.418925544771</v>
+        <v>17212.09242159844</v>
       </c>
       <c r="I5">
-        <v>0.04233953216284244</v>
+        <v>0.1206381922439434</v>
       </c>
       <c r="J5">
-        <v>239.995287135248</v>
+        <v>5982.737485038539</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2253,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5997184741026964</v>
+        <v>0.4677093648752023</v>
       </c>
       <c r="N5">
-        <v>3399.414212680019</v>
+        <v>23194.82990663698</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2267,78 +2331,78 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>14766.9</v>
+        <v>68575.60000000001</v>
       </c>
       <c r="E6">
-        <v>0.0800334357393315</v>
+        <v>0.3221150078322514</v>
       </c>
       <c r="F6">
-        <v>1181.845742219135</v>
+        <v>22089.22993110134</v>
       </c>
       <c r="G6">
-        <v>0.9199665642606685</v>
+        <v>0.5140777342491439</v>
       </c>
       <c r="H6">
-        <v>13585.05425778087</v>
+        <v>35253.1890727756</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.128880447623572</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8838.054024055025</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.03492681029503254</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2395.126972068033</v>
       </c>
       <c r="M6">
-        <v>0.9199665642606685</v>
+        <v>0.6778849921677484</v>
       </c>
       <c r="N6">
-        <v>13585.05425778087</v>
+        <v>46486.37006889866</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>20301.8</v>
+        <v>26871.4</v>
       </c>
       <c r="E7">
-        <v>0.5308853284484077</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>10777.92776109389</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4114189095907737</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>8352.544418729971</v>
+        <v>26871.4</v>
       </c>
       <c r="I7">
-        <v>0.05769576196081867</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1171.327820176149</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2347,60 +2411,60 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4691146715515924</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>9523.872238906119</v>
+        <v>26871.4</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>8152.3</v>
+        <v>20314.4</v>
       </c>
       <c r="E8">
-        <v>0.4739244878327971</v>
+        <v>0.2320439722535046</v>
       </c>
       <c r="F8">
-        <v>3863.574602159312</v>
+        <v>4713.834069946593</v>
       </c>
       <c r="G8">
-        <v>0.4888811443418292</v>
+        <v>0.5492476975797815</v>
       </c>
       <c r="H8">
-        <v>3985.505753017895</v>
+        <v>11157.63742771472</v>
       </c>
       <c r="I8">
-        <v>0.03719436782537369</v>
+        <v>0.2138845611756334</v>
       </c>
       <c r="J8">
-        <v>303.2196448227939</v>
+        <v>4344.936529546287</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.004823768991080496</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>97.99197279240565</v>
       </c>
       <c r="M8">
-        <v>0.5260755121672029</v>
+        <v>0.7679560277464954</v>
       </c>
       <c r="N8">
-        <v>4288.725397840689</v>
+        <v>15600.56593005341</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2408,187 +2472,187 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>5569.25</v>
+        <v>59067.60000000001</v>
       </c>
       <c r="E9">
-        <v>0.2678379860181938</v>
+        <v>0.3865070163234043</v>
       </c>
       <c r="F9">
-        <v>1491.656703631826</v>
+        <v>22830.04183738432</v>
       </c>
       <c r="G9">
-        <v>0.557064830136097</v>
+        <v>0.3036068891371714</v>
       </c>
       <c r="H9">
-        <v>3102.433305235458</v>
+        <v>17933.33028479879</v>
       </c>
       <c r="I9">
-        <v>0.1390461336267982</v>
+        <v>0.3009774367406595</v>
       </c>
       <c r="J9">
-        <v>774.382679701046</v>
+        <v>17778.01484242258</v>
       </c>
       <c r="K9">
-        <v>0.03605105021891107</v>
+        <v>0.008908657798764678</v>
       </c>
       <c r="L9">
-        <v>200.7773114316705</v>
+        <v>526.2130353943126</v>
       </c>
       <c r="M9">
-        <v>0.7321620139818062</v>
+        <v>0.6134929836765957</v>
       </c>
       <c r="N9">
-        <v>4077.593296368175</v>
+        <v>36237.55816261569</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>6697.35</v>
+        <v>22673.4</v>
       </c>
       <c r="E10">
-        <v>0.5391086050922841</v>
+        <v>0.4448941537098441</v>
       </c>
       <c r="F10">
-        <v>3610.599016314809</v>
+        <v>10087.26310472478</v>
       </c>
       <c r="G10">
-        <v>0.3017891441473183</v>
+        <v>0.5472451299414198</v>
       </c>
       <c r="H10">
-        <v>2021.187524555042</v>
+        <v>12407.90772921379</v>
       </c>
       <c r="I10">
-        <v>0.1407727642291499</v>
+        <v>0.007860716348736103</v>
       </c>
       <c r="J10">
-        <v>942.8044725100972</v>
+        <v>178.2291660614332</v>
       </c>
       <c r="K10">
-        <v>0.0183294865312477</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>122.7589866200518</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4608913949077159</v>
+        <v>0.5551058462901559</v>
       </c>
       <c r="N10">
-        <v>3086.750983685191</v>
+        <v>12586.13689527522</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>7384.8</v>
+        <v>26893.4</v>
       </c>
       <c r="E11">
-        <v>0.3398125165492802</v>
+        <v>0.5184116565944059</v>
       </c>
       <c r="F11">
-        <v>2509.447472213125</v>
+        <v>13941.852045456</v>
       </c>
       <c r="G11">
-        <v>0.5724602056861854</v>
+        <v>0.4452602009559607</v>
       </c>
       <c r="H11">
-        <v>4227.504126951342</v>
+        <v>11974.56068838903</v>
       </c>
       <c r="I11">
-        <v>0.08070696403144359</v>
+        <v>0.02990607909330508</v>
       </c>
       <c r="J11">
-        <v>596.0047879794047</v>
+        <v>804.276147487891</v>
       </c>
       <c r="K11">
-        <v>0.007020313733090852</v>
+        <v>0.006422063356328294</v>
       </c>
       <c r="L11">
-        <v>51.84361285612933</v>
+        <v>172.7111186670793</v>
       </c>
       <c r="M11">
-        <v>0.6601874834507199</v>
+        <v>0.481588343405594</v>
       </c>
       <c r="N11">
-        <v>4875.352527786877</v>
+        <v>12951.547954544</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>17143.9</v>
+        <v>23537.2</v>
       </c>
       <c r="E12">
-        <v>0.6363356345191588</v>
+        <v>0.04207997070212186</v>
       </c>
       <c r="F12">
-        <v>10909.27448463301</v>
+        <v>990.4446864099828</v>
       </c>
       <c r="G12">
-        <v>0.1949942483540166</v>
+        <v>0.8994031748300262</v>
       </c>
       <c r="H12">
-        <v>3342.961894356425</v>
+        <v>21169.43240660929</v>
       </c>
       <c r="I12">
-        <v>0.1686701171268247</v>
+        <v>0.03877949327176015</v>
       </c>
       <c r="J12">
-        <v>2891.663621010571</v>
+        <v>912.760689036073</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01973736119609183</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>464.5622179446527</v>
       </c>
       <c r="M12">
-        <v>0.3636643654808413</v>
+        <v>0.9579200292978781</v>
       </c>
       <c r="N12">
-        <v>6234.625515366995</v>
+        <v>22546.75531359002</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2596,153 +2660,281 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>134175</v>
+      </c>
+      <c r="E13">
+        <v>0.7579180509413067</v>
+      </c>
+      <c r="F13">
+        <v>101693.6544850498</v>
+      </c>
+      <c r="G13">
+        <v>0.2420819490586932</v>
+      </c>
+      <c r="H13">
+        <v>32481.34551495016</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.2420819490586932</v>
+      </c>
+      <c r="N13">
+        <v>32481.34551495016</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>24364.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5354632826579592</v>
+      </c>
+      <c r="F14">
+        <v>13046.24160399158</v>
+      </c>
+      <c r="G14">
+        <v>0.3509738058276681</v>
+      </c>
+      <c r="H14">
+        <v>8551.266194707636</v>
+      </c>
+      <c r="I14">
+        <v>0.10403116803169</v>
+      </c>
+      <c r="J14">
+        <v>2534.656990391307</v>
+      </c>
+      <c r="K14">
+        <v>0.009531743482682941</v>
+      </c>
+      <c r="L14">
+        <v>232.2352109094803</v>
+      </c>
+      <c r="M14">
+        <v>0.4645367173420409</v>
+      </c>
+      <c r="N14">
+        <v>11318.15839600842</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>23383</v>
+      </c>
+      <c r="E15">
+        <v>0.06406317930736923</v>
+      </c>
+      <c r="F15">
+        <v>1497.989321744215</v>
+      </c>
+      <c r="G15">
+        <v>0.9359368206926308</v>
+      </c>
+      <c r="H15">
+        <v>21885.01067825579</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.9359368206926308</v>
+      </c>
+      <c r="N15">
+        <v>21885.01067825579</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>29539.2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.2089195670608832</v>
+      </c>
+      <c r="H16">
+        <v>6171.316875324841</v>
+      </c>
+      <c r="I16">
+        <v>0.7374426683930737</v>
+      </c>
+      <c r="J16">
+        <v>21783.46647019668</v>
+      </c>
+      <c r="K16">
+        <v>0.0536377645460431</v>
+      </c>
+      <c r="L16">
+        <v>1584.416654478476</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>29539.2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>32609.2</v>
+      </c>
+      <c r="E17">
+        <v>0.6154651662764387</v>
+      </c>
+      <c r="F17">
+        <v>20069.82670014164</v>
+      </c>
+      <c r="G17">
+        <v>0.3667048773795144</v>
+      </c>
+      <c r="H17">
+        <v>11957.95268744406</v>
+      </c>
+      <c r="I17">
+        <v>0.01782995634404686</v>
+      </c>
+      <c r="J17">
+        <v>581.4206124142929</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.3845348337235613</v>
+      </c>
+      <c r="N17">
+        <v>12539.37329985835</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="D13">
-        <v>12398.1</v>
-      </c>
-      <c r="E13">
-        <v>0.3841326245431426</v>
-      </c>
-      <c r="F13">
-        <v>4762.514692348336</v>
-      </c>
-      <c r="G13">
-        <v>0.5027343927141287</v>
-      </c>
-      <c r="H13">
-        <v>6232.951274309039</v>
-      </c>
-      <c r="I13">
-        <v>0.0564599996025666</v>
-      </c>
-      <c r="J13">
-        <v>699.996721072581</v>
-      </c>
-      <c r="K13">
-        <v>0.05667298314016202</v>
-      </c>
-      <c r="L13">
-        <v>702.6373122700427</v>
-      </c>
-      <c r="M13">
-        <v>0.6158673754568573</v>
-      </c>
-      <c r="N13">
-        <v>7635.585307651662</v>
-      </c>
-      <c r="O13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>22154.4</v>
-      </c>
-      <c r="E2">
-        <v>0.3211198841556461</v>
-      </c>
-      <c r="F2">
-        <v>7114.218361537846</v>
-      </c>
-      <c r="G2">
-        <v>0.6131224478560172</v>
-      </c>
-      <c r="H2">
-        <v>13583.35995878135</v>
-      </c>
-      <c r="I2">
-        <v>0.06408108273750845</v>
-      </c>
-      <c r="J2">
-        <v>1419.677939399857</v>
-      </c>
-      <c r="K2">
-        <v>0.001676585250828165</v>
-      </c>
-      <c r="L2">
-        <v>37.14374028094749</v>
-      </c>
-      <c r="M2">
-        <v>0.6788801158443538</v>
-      </c>
-      <c r="N2">
-        <v>15040.18163846215</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>81207.20000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.5070762648531499</v>
+      </c>
+      <c r="F18">
+        <v>41178.24365518273</v>
+      </c>
+      <c r="G18">
+        <v>0.1275487008943028</v>
+      </c>
+      <c r="H18">
+        <v>10357.87286326383</v>
+      </c>
+      <c r="I18">
+        <v>0.3269421194230625</v>
+      </c>
+      <c r="J18">
+        <v>26550.05408041253</v>
+      </c>
+      <c r="K18">
+        <v>0.03843291482948458</v>
+      </c>
+      <c r="L18">
+        <v>3121.029401140921</v>
+      </c>
+      <c r="M18">
+        <v>0.4929237351468499</v>
+      </c>
+      <c r="N18">
+        <v>40028.95634481728</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
